--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:17:43+00:00</t>
+    <t>2021-10-20T05:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:25:12+00:00</t>
+    <t>2021-10-20T19:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:39:21+00:00</t>
+    <t>2021-10-20T19:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:41:28+00:00</t>
+    <t>2021-10-20T19:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:53:48+00:00</t>
+    <t>2021-10-21T22:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T20:20:15+00:00</t>
+    <t>2021-10-27T20:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,34 +434,34 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>effectiveDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient-business-date}
+    <t>effectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient-business-dates}
 </t>
   </si>
   <si>
-    <t>BC Patient business date</t>
-  </si>
-  <si>
-    <t>The effective start date for the Patient.</t>
+    <t>BC Patient business dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>phnEffectiveDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-phn-business-date}
+    <t>phnEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-phn-business-dates}
 </t>
   </si>
   <si>
     <t>BC Patient PHN business date</t>
   </si>
   <si>
-    <t>The effective start date for the Patient's PHN.</t>
+    <t>The effective dates for the Patient's PHN.</t>
   </si>
   <si>
     <t>deathDate</t>
@@ -475,6 +475,68 @@
   </si>
   <si>
     <t>The Patients death date and time as recorded in the Client Registry.</t>
+  </si>
+  <si>
+    <t>birthDateEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-birth-date-business-dates}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Birth Date business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Birth Date.</t>
+  </si>
+  <si>
+    <t>deathDateEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-death-date-business-dates}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Death Date business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Death Date.</t>
+  </si>
+  <si>
+    <t>deathDateFlagEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-death-date-flag-business-dates}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Death Date flag business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Death Date flag.</t>
+  </si>
+  <si>
+    <t>genderEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-gender-business-dates}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Gender business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Gender.</t>
+  </si>
+  <si>
+    <t>genderEffectiveDatesAndSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-phn-extension}
+</t>
+  </si>
+  <si>
+    <t>BC extension for source and business dates.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1182,6 +1244,92 @@
   </si>
   <si>
     <t>PID-3, MRG-1</t>
+  </si>
+  <si>
+    <t>Patient.link.other.id</t>
+  </si>
+  <si>
+    <t>Patient.link.other.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Patient.link.other.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Patient.link.other.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Patient.link.other.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Patient.link.other.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Patient.link.type</t>
@@ -1496,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1506,7 +1654,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.8203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1532,7 +1680,7 @@
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2687,7 +2835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>125</v>
       </c>
@@ -2705,7 +2853,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2801,7 +2949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>125</v>
       </c>
@@ -2819,7 +2967,7 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2917,30 +3065,32 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>149</v>
@@ -2948,12 +3098,8 @@
       <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3001,7 +3147,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -3010,13 +3156,13 @@
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3033,9 +3179,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3044,7 +3192,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3053,21 +3201,19 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3115,7 +3261,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -3124,22 +3270,22 @@
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3147,9 +3293,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3164,32 +3312,26 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3233,28 +3375,28 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3265,9 +3407,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3276,7 +3420,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -3285,23 +3429,19 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3349,7 +3489,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3358,22 +3498,22 @@
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3381,9 +3521,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3392,7 +3534,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3401,23 +3543,19 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3465,7 +3603,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3474,22 +3612,22 @@
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3497,42 +3635,42 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3557,13 +3695,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3581,31 +3719,31 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3613,7 +3751,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3624,7 +3762,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3636,19 +3774,17 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3697,13 +3833,13 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3712,24 +3848,24 @@
         <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3752,24 +3888,26 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3813,7 +3951,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3828,16 +3966,16 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3845,7 +3983,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3853,7 +3991,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>73</v>
@@ -3865,22 +4003,22 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3929,7 +4067,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3938,22 +4076,22 @@
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -3961,7 +4099,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3972,7 +4110,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3981,20 +4119,22 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4019,13 +4159,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4043,13 +4183,13 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -4058,24 +4198,24 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4083,34 +4223,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4135,13 +4275,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4159,7 +4299,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4174,24 +4314,24 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4199,34 +4339,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4275,13 +4415,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4290,24 +4430,24 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4318,31 +4458,31 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4391,39 +4531,39 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4434,10 +4574,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4446,16 +4586,20 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4503,22 +4647,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4527,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4535,18 +4679,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4558,18 +4702,18 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4593,13 +4737,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4617,31 +4761,31 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4649,42 +4793,42 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4733,31 +4877,31 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4765,7 +4909,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4788,17 +4932,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4823,13 +4969,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4847,7 +4993,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4862,16 +5008,16 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4879,7 +5025,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4890,7 +5036,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4902,17 +5048,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4961,31 +5109,31 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4993,7 +5141,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5004,7 +5152,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -5016,20 +5164,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5077,31 +5221,31 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5109,18 +5253,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -5132,18 +5276,18 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5191,31 +5335,31 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5223,40 +5367,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5281,13 +5427,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5305,31 +5451,31 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5337,7 +5483,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5348,7 +5494,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5360,17 +5506,17 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5395,13 +5541,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5419,31 +5565,31 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5451,7 +5597,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5474,16 +5620,18 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5531,7 +5679,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5546,16 +5694,16 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5563,7 +5711,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5586,19 +5734,19 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5647,7 +5795,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5662,16 +5810,16 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5679,7 +5827,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5702,16 +5850,18 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5759,7 +5909,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5771,19 +5921,19 @@
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5791,18 +5941,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5814,18 +5964,18 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5849,13 +5999,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5873,31 +6023,31 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5905,42 +6055,40 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5989,31 +6137,31 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6021,7 +6169,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6029,7 +6177,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>81</v>
@@ -6044,20 +6192,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6081,13 +6225,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6105,10 +6249,10 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6120,16 +6264,16 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6137,7 +6281,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6148,7 +6292,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6160,19 +6304,19 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6221,13 +6365,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6236,16 +6380,16 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6257,14 +6401,14 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6276,17 +6420,15 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6335,31 +6477,31 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6367,18 +6509,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6387,23 +6529,21 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6451,25 +6591,25 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6483,11 +6623,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6506,19 +6646,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6567,7 +6707,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6579,13 +6719,13 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6599,7 +6739,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6607,7 +6747,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>81</v>
@@ -6622,16 +6762,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6655,13 +6799,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6679,10 +6823,10 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -6691,19 +6835,19 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6711,18 +6855,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6734,18 +6878,20 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6793,31 +6939,31 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>171</v>
+        <v>359</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -6825,11 +6971,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6842,26 +6988,24 @@
         <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6909,7 +7053,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6921,19 +7065,19 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>368</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -6941,7 +7085,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6949,7 +7093,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>81</v>
@@ -6964,18 +7108,20 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7023,10 +7169,10 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7038,16 +7184,16 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7055,7 +7201,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7063,31 +7209,35 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7111,13 +7261,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7135,13 +7285,13 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7150,23 +7300,1273 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN49" t="s" s="2">
+      <c r="O52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN49">
+  <autoFilter ref="A1:AN60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7176,7 +8576,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient</t>
+    <t>http://moh.fhir/bc-client/StructureDefinition/bc-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T17:05:20+00:00</t>
+    <t>2021-11-05T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -407,9 +407,6 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -437,7 +434,7 @@
     <t>effectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-patient-business-dates}
 </t>
   </si>
   <si>
@@ -451,92 +448,69 @@
 </t>
   </si>
   <si>
-    <t>phnEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-phn-business-dates}
+    <t>deathDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-extension}
 </t>
   </si>
   <si>
-    <t>BC Patient PHN business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's PHN.</t>
-  </si>
-  <si>
-    <t>deathDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-death-date-extension}
+    <t>BC Patient death date</t>
+  </si>
+  <si>
+    <t>The Patients death date and time as recorded in the Client Registry.</t>
+  </si>
+  <si>
+    <t>birthDateEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-birth-date-business-dates}
 </t>
   </si>
   <si>
-    <t>BC Patient death date</t>
-  </si>
-  <si>
-    <t>The Patients death date and time as recorded in the Client Registry.</t>
-  </si>
-  <si>
-    <t>birthDateEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-birth-date-business-dates}
+    <t>BC Patient Birth Date business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Birth Date.</t>
+  </si>
+  <si>
+    <t>deathDateEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-business-dates}
 </t>
   </si>
   <si>
-    <t>BC Patient Birth Date business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Birth Date.</t>
-  </si>
-  <si>
-    <t>deathDateEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-death-date-business-dates}
+    <t>BC Patient Death Date business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Death Date.</t>
+  </si>
+  <si>
+    <t>deathDateFlagEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-flag-business-dates}
 </t>
   </si>
   <si>
-    <t>BC Patient Death Date business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Death Date.</t>
-  </si>
-  <si>
-    <t>deathDateFlagEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-death-date-flag-business-dates}
+    <t>BC Patient Death Date flag business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Death Date flag.</t>
+  </si>
+  <si>
+    <t>genderEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-gender-business-dates}
 </t>
   </si>
   <si>
-    <t>BC Patient Death Date flag business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Death Date flag.</t>
-  </si>
-  <si>
-    <t>genderEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-gender-business-dates}
-</t>
-  </si>
-  <si>
     <t>BC Patient Gender business date</t>
   </si>
   <si>
     <t>The effective dates for the Patient's Gender.</t>
-  </si>
-  <si>
-    <t>genderEffectiveDatesAndSource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-phn-extension}
-</t>
-  </si>
-  <si>
-    <t>BC extension for source and business dates.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -768,7 +742,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-client-registry-address}
+    <t xml:space="preserve">Address {http://moh.fhir/bc-client/StructureDefinition/bc-client-registry-address}
 </t>
   </si>
   <si>
@@ -1644,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1654,7 +1628,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.8203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.93359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2621,7 +2595,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>73</v>
@@ -2636,13 +2610,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2681,17 +2655,17 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
@@ -2703,7 +2677,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2726,7 +2700,7 @@
         <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2748,13 +2722,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2805,7 +2779,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2814,10 +2788,10 @@
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2840,14 +2814,14 @@
         <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>81</v>
@@ -2862,13 +2836,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2919,7 +2893,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2928,10 +2902,10 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2954,7 +2928,7 @@
         <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>74</v>
@@ -2976,13 +2950,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3033,7 +3007,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -3042,10 +3016,10 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3068,7 +3042,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>74</v>
@@ -3090,13 +3064,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3147,7 +3121,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -3156,10 +3130,10 @@
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -3182,7 +3156,7 @@
         <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>74</v>
@@ -3204,13 +3178,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3261,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -3270,10 +3244,10 @@
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -3296,7 +3270,7 @@
         <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -3318,13 +3292,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3375,7 +3349,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -3384,10 +3358,10 @@
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -3407,41 +3381,43 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3489,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3498,13 +3474,13 @@
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3521,11 +3497,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3534,7 +3508,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3543,19 +3517,21 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3603,7 +3579,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3612,22 +3588,22 @@
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3635,18 +3611,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3655,27 +3631,29 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="Q18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3719,28 +3697,28 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3749,9 +3727,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3759,13 +3737,13 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3774,17 +3752,19 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3833,7 +3813,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3848,16 +3828,16 @@
         <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3865,7 +3845,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3876,38 +3856,36 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3951,13 +3929,13 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3966,16 +3944,16 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3983,7 +3961,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3994,7 +3972,7 @@
         <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>82</v>
@@ -4006,19 +3984,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -4043,13 +4021,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -4067,13 +4045,13 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -4082,24 +4060,24 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4107,13 +4085,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4122,19 +4100,19 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4183,13 +4161,13 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -4198,24 +4176,24 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4223,34 +4201,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4275,13 +4253,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4299,7 +4277,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4314,16 +4292,16 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4331,7 +4309,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4339,10 +4317,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>82</v>
@@ -4351,22 +4329,22 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4415,39 +4393,39 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4464,25 +4442,23 @@
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4507,13 +4483,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4531,7 +4507,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4546,24 +4522,24 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4574,10 +4550,10 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4586,19 +4562,19 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4647,31 +4623,31 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4679,7 +4655,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4690,7 +4666,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4702,17 +4678,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4737,13 +4715,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4761,13 +4739,13 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4776,16 +4754,16 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4793,7 +4771,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4804,7 +4782,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4816,19 +4794,19 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4877,31 +4855,31 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4909,7 +4887,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4920,7 +4898,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4932,20 +4910,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4993,31 +4967,31 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5025,11 +4999,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5048,20 +5022,18 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5109,7 +5081,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -5121,13 +5093,13 @@
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5145,35 +5117,39 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5221,22 +5197,22 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5253,11 +5229,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5276,18 +5252,18 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5311,13 +5287,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5335,7 +5311,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5347,19 +5323,19 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5367,42 +5343,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5451,31 +5425,31 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5483,7 +5457,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5506,17 +5480,19 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5541,31 +5517,31 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5580,16 +5556,16 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5597,7 +5573,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5620,17 +5596,17 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5679,7 +5655,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5694,16 +5670,16 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5711,7 +5687,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5722,7 +5698,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5734,19 +5710,17 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5771,13 +5745,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5795,13 +5769,13 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5810,16 +5784,16 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5827,7 +5801,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5850,17 +5824,17 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5909,7 +5883,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5918,22 +5892,22 @@
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5941,7 +5915,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5964,18 +5938,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5999,13 +5971,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -6023,7 +5995,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -6038,16 +6010,16 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6055,7 +6027,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6066,7 +6038,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -6078,17 +6050,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6137,31 +6111,31 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6169,7 +6143,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6192,13 +6166,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6249,7 +6223,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6261,13 +6235,13 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6285,7 +6259,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6304,20 +6278,18 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6365,7 +6337,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -6377,13 +6349,13 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6397,39 +6369,43 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6477,22 +6453,22 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6509,18 +6485,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6532,18 +6508,20 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6567,13 +6545,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6591,31 +6569,31 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6623,42 +6601,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6707,31 +6685,31 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6739,18 +6717,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6762,20 +6740,18 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6799,13 +6775,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6823,13 +6799,13 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6838,16 +6814,16 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6855,7 +6831,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6875,22 +6851,22 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6939,7 +6915,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6954,58 +6930,60 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7053,7 +7031,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -7068,16 +7046,16 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7085,7 +7063,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7105,23 +7083,19 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7169,7 +7143,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -7181,13 +7155,13 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7201,11 +7175,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7218,26 +7192,24 @@
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7285,7 +7257,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -7297,13 +7269,13 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7317,39 +7289,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7397,22 +7373,22 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7429,18 +7405,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7449,19 +7425,19 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7511,31 +7487,31 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7543,43 +7519,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7627,22 +7599,22 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7659,18 +7631,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7679,19 +7651,19 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7729,43 +7701,43 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>385</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -7773,7 +7745,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7793,18 +7765,20 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7853,7 +7827,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7862,13 +7836,13 @@
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7889,14 +7863,14 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7905,19 +7879,19 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7943,46 +7917,46 @@
         <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>396</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7997,9 +7971,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8007,13 +7981,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8022,16 +7996,16 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8081,7 +8055,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -8090,13 +8064,13 @@
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -8113,7 +8087,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8136,16 +8110,16 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8171,13 +8145,13 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -8195,7 +8169,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -8225,9 +8199,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8241,7 +8215,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8250,17 +8224,15 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -8285,13 +8257,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -8309,10 +8281,10 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8324,10 +8296,10 @@
         <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8336,237 +8308,11 @@
         <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
+  <autoFilter ref="A1:AN58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8576,7 +8322,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-client/StructureDefinition/bc-patient</t>
+    <t>http://moh.fhir/bc-clientregistry/StructureDefinition/bc-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-05T15:02:58+00:00</t>
+    <t>2021-11-08T22:48:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,7 @@
     <t>effectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-patient-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-patient-business-dates-extension}
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>deathDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-extension}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-death-date-extension}
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>birthDateEffectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-birth-date-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-birth-date-business-dates-extension}
 </t>
   </si>
   <si>
@@ -477,7 +477,7 @@
     <t>deathDateEffectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-death-date-business-dates-extension}
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>deathDateFlagEffectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-death-date-flag-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-death-date-flag-business-dates-extension}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>genderEffectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-gender-business-dates}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-gender-business-dates-extension}
 </t>
   </si>
   <si>
@@ -742,7 +742,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://moh.fhir/bc-client/StructureDefinition/bc-client-registry-address}
+    <t xml:space="preserve">Address {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-client-registry-address}
 </t>
   </si>
   <si>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>73</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>81</v>
@@ -6958,7 +6958,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T22:48:39+00:00</t>
+    <t>2021-11-10T00:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -626,6 +626,198 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-name-use-value-set</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -654,6 +846,116 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
+    <t>Patient.telecom.id</t>
+  </si>
+  <si>
+    <t>Patient.telecom.extension</t>
+  </si>
+  <si>
+    <t>Patient.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-contact-point-system-value-set</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>Patient.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>Patient.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-contact-point-use-value-set</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>Patient.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Patient.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -667,9 +969,6 @@
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
@@ -880,25 +1179,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -1033,10 +1314,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1224,9 +1501,6 @@
   </si>
   <si>
     <t>Patient.link.other.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Patient.link.other.reference</t>
@@ -1618,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,7 +1925,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.8125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1665,7 +1939,7 @@
     <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="56.171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3856,7 +4130,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3865,23 +4139,19 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3929,75 +4199,73 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4021,55 +4289,55 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4077,7 +4345,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4094,25 +4362,25 @@
         <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4137,13 +4405,11 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4161,7 +4427,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -4176,24 +4442,24 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4210,25 +4476,25 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4277,7 +4543,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4292,60 +4558,58 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4393,22 +4657,22 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4417,7 +4681,7 @@
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4425,18 +4689,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4445,21 +4709,21 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4483,13 +4747,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4507,13 +4771,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4522,16 +4786,16 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4539,7 +4803,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4550,7 +4814,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4559,23 +4823,19 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4623,13 +4883,13 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4638,16 +4898,16 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4655,7 +4915,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4675,23 +4935,19 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4739,7 +4995,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4754,16 +5010,16 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4771,7 +5027,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4782,7 +5038,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4791,22 +5047,20 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4855,31 +5109,31 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4887,7 +5141,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4898,7 +5152,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4907,19 +5161,23 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4967,31 +5225,31 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4999,18 +5257,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -5022,17 +5280,15 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5081,19 +5337,19 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>182</v>
@@ -5113,11 +5369,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5130,26 +5386,24 @@
         <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>126</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5185,19 +5439,19 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -5212,7 +5466,7 @@
         <v>132</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5229,7 +5483,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5240,7 +5494,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -5249,21 +5503,19 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5287,13 +5539,11 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5311,31 +5561,31 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5343,7 +5593,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5363,20 +5613,22 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5425,7 +5677,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5440,16 +5692,16 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5457,7 +5709,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5468,31 +5720,31 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5517,13 +5769,11 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5541,13 +5791,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5556,16 +5806,16 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5573,7 +5823,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5593,21 +5843,21 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5655,7 +5905,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5670,16 +5920,16 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5687,7 +5937,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5707,21 +5957,19 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5745,13 +5993,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5769,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5784,24 +6032,24 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5809,32 +6057,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5859,13 +6109,13 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5883,7 +6133,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5892,30 +6142,30 @@
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5923,31 +6173,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5995,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -6010,24 +6264,24 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6038,31 +6292,31 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6111,13 +6365,13 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -6126,24 +6380,24 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6154,10 +6408,10 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6166,16 +6420,20 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6223,22 +6481,22 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>182</v>
+        <v>334</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6247,7 +6505,7 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6259,14 +6517,14 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6278,18 +6536,18 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6313,13 +6571,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6337,31 +6595,31 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6369,42 +6627,42 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6453,31 +6711,31 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>124</v>
+        <v>353</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6485,7 +6743,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6493,10 +6751,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6508,19 +6766,19 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6545,13 +6803,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6569,13 +6827,13 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -6584,16 +6842,16 @@
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>182</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6601,7 +6859,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6612,7 +6870,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6624,19 +6882,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6685,31 +6943,31 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6717,18 +6975,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6740,17 +6998,15 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6799,31 +7055,31 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>196</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6831,18 +7087,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6851,23 +7107,21 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>316</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6915,25 +7169,25 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6945,13 +7199,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6961,7 +7215,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -6970,19 +7224,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -7031,7 +7285,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -7043,13 +7297,13 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7063,7 +7317,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7074,7 +7328,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -7086,16 +7340,18 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7119,13 +7375,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -7143,31 +7399,31 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7175,18 +7431,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -7198,18 +7454,18 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>278</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7257,31 +7513,31 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7289,11 +7545,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7306,25 +7562,25 @@
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7373,7 +7629,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -7385,19 +7641,19 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7405,7 +7661,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7413,7 +7669,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>81</v>
@@ -7425,21 +7681,21 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7487,10 +7743,10 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7502,7 +7758,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>182</v>
@@ -7511,7 +7767,7 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7519,7 +7775,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7542,16 +7798,18 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7575,13 +7833,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7599,7 +7857,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7611,19 +7869,19 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -7631,18 +7889,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7654,18 +7912,18 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>126</v>
+        <v>408</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7701,43 +7959,43 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -7745,7 +8003,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7765,20 +8023,18 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7827,7 +8083,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7836,16 +8092,16 @@
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7859,7 +8115,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7870,7 +8126,7 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7879,21 +8135,23 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>364</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7917,13 +8175,13 @@
         <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>74</v>
@@ -7941,13 +8199,13 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7956,10 +8214,10 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7971,9 +8229,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7981,32 +8239,30 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -8055,7 +8311,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -8067,10 +8323,10 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -8087,18 +8343,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -8107,19 +8363,19 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>199</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>162</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8169,22 +8425,22 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -8201,39 +8457,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8257,62 +8517,1890 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF58" t="s" s="2">
+      <c r="X74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AG58" t="s" s="2">
+      <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AJ74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8322,7 +10410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,83 +449,18 @@
     <t>effectiveDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient-business-dates-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
 </t>
   </si>
   <si>
-    <t>BC Patient business dates</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient.</t>
+    <t>BC business dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>deathDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient death date</t>
-  </si>
-  <si>
-    <t>The Patients death date and time as recorded in the Client Registry.</t>
-  </si>
-  <si>
-    <t>birthDateEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-birth-date-business-dates-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Birth Date business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Birth Date.</t>
-  </si>
-  <si>
-    <t>deathDateEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-business-dates-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Death Date business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Death Date.</t>
-  </si>
-  <si>
-    <t>deathDateFlagEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-flag-business-dates-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Death Date flag business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Death Date flag.</t>
-  </si>
-  <si>
-    <t>genderEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-business-dates-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Gender business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Gender.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1001,6 +936,30 @@
     <t>PID-8</t>
   </si>
   <si>
+    <t>Patient.gender.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Patient.gender.extension</t>
+  </si>
+  <si>
+    <t>genderEffectiveDates</t>
+  </si>
+  <si>
+    <t>Patient.gender.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>Patient.birthDate</t>
   </si>
   <si>
@@ -1032,6 +991,27 @@
     <t>21112-8</t>
   </si>
   <si>
+    <t>Patient.birthDate.id</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.extension</t>
+  </si>
+  <si>
+    <t>birthDateEffectiveDates</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.value</t>
+  </si>
+  <si>
+    <t>Primitive value for date</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>date.value</t>
+  </si>
+  <si>
     <t>Patient.deceased[x]</t>
   </si>
   <si>
@@ -1053,29 +1033,76 @@
     <t>PID-30  (bool) and PID-29 (datetime)</t>
   </si>
   <si>
+    <t>Patient.deceased[x].id</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x].extension</t>
+  </si>
+  <si>
+    <t>deathDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Patient death date</t>
+  </si>
+  <si>
+    <t>The Patients death date and time as recorded in the Client Registry.</t>
+  </si>
+  <si>
+    <t>deathDateEffectiveDates</t>
+  </si>
+  <si>
+    <t>deathDateFlagEffectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-flag-business-period-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Death Date flag business date</t>
+  </si>
+  <si>
+    <t>The effective dates for the Patient's Death Date flag.</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x].value</t>
+  </si>
+  <si>
+    <t>Primitive value for boolean</t>
+  </si>
+  <si>
+    <t>boolean.value</t>
+  </si>
+  <si>
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-client-registry-address}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
+  </si>
+  <si>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>XAD</t>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>.addr</t>
+  </si>
+  <si>
+    <t>PID-11</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1135,6 +1162,15 @@
   </si>
   <si>
     <t>PID-24 (bool), PID-25 (integer)</t>
+  </si>
+  <si>
+    <t>Patient.multipleBirth[x].id</t>
+  </si>
+  <si>
+    <t>Patient.multipleBirth[x].extension</t>
+  </si>
+  <si>
+    <t>multipleBirthBusinessDates</t>
   </si>
   <si>
     <t>Patient.photo</t>
@@ -1271,10 +1307,6 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
     <t>Address for the contact person</t>
   </si>
   <si>
@@ -1282,9 +1314,6 @@
   </si>
   <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
-  </si>
-  <si>
-    <t>addr</t>
   </si>
   <si>
     <t>NK1-4</t>
@@ -1510,89 +1539,6 @@
   </si>
   <si>
     <t>PID-3, MRG-1</t>
-  </si>
-  <si>
-    <t>Patient.link.other.id</t>
-  </si>
-  <si>
-    <t>Patient.link.other.extension</t>
-  </si>
-  <si>
-    <t>Patient.link.other.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Patient.link.other.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Patient.link.other.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Patient.link.other.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Patient.link.type</t>
@@ -1925,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3002,7 +2948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>130</v>
       </c>
@@ -3020,7 +2966,7 @@
         <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3118,32 +3064,30 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -3151,8 +3095,12 @@
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3200,7 +3148,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3209,13 +3157,13 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3232,11 +3180,9 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3245,7 +3191,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3254,19 +3200,21 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3314,7 +3262,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3323,22 +3271,22 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3346,11 +3294,9 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3365,26 +3311,32 @@
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="Q13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3428,28 +3380,28 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3458,43 +3410,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3542,7 +3496,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3551,22 +3505,22 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3574,11 +3528,9 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3599,13 +3551,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3656,22 +3608,22 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3688,11 +3640,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3705,7 +3657,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3714,17 +3666,15 @@
         <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3760,19 +3710,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3737,7 @@
         <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3804,7 +3754,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3812,32 +3762,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3862,13 +3814,11 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3886,13 +3836,13 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3901,16 +3851,16 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3918,7 +3868,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3935,32 +3885,30 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4004,7 +3952,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4019,38 +3967,38 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4059,20 +4007,18 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4120,13 +4066,13 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -4135,16 +4081,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4152,18 +4098,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4172,18 +4118,20 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4232,22 +4180,22 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4256,7 +4204,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4264,11 +4212,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4284,20 +4232,18 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4334,19 +4280,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4358,10 +4304,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4370,15 +4316,15 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4386,35 +4332,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4438,11 +4380,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4460,13 +4404,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4475,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4484,7 +4428,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4492,7 +4436,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4515,19 +4459,17 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4576,7 +4518,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4591,7 +4533,7 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4600,29 +4542,29 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4631,18 +4573,20 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4690,13 +4634,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4705,16 +4649,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4722,18 +4666,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4742,20 +4686,18 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4804,22 +4746,22 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -4828,7 +4770,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4836,11 +4778,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4856,18 +4798,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4904,19 +4848,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4928,10 +4872,10 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4884,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4948,7 +4892,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4959,7 +4903,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4971,13 +4915,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5004,13 +4948,11 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5028,22 +4970,22 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5052,7 +4994,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5060,7 +5002,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5083,17 +5025,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5142,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5157,7 +5101,7 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5166,7 +5110,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5174,7 +5118,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5185,31 +5129,31 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5234,13 +5178,11 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5258,13 +5200,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5273,16 +5215,16 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5290,7 +5232,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5310,18 +5252,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5370,7 +5314,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5382,10 +5326,10 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5394,7 +5338,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5402,18 +5346,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5422,20 +5366,18 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5472,34 +5414,34 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5508,15 +5450,15 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5524,13 +5466,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5542,13 +5484,17 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5572,11 +5518,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5542,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5603,22 +5551,22 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5626,7 +5574,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5646,23 +5594,19 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5710,7 +5654,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5722,10 +5666,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5734,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5742,7 +5686,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5753,32 +5697,28 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5802,44 +5742,44 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5848,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5856,9 +5796,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5876,20 +5818,18 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5938,22 +5878,22 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5962,7 +5902,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5910,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5990,16 +5930,16 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6050,7 +5990,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6062,10 +6002,10 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6074,7 +6014,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6082,7 +6022,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6105,19 +6045,19 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6142,13 +6082,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6166,7 +6106,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6181,24 +6121,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK37" t="s" s="2">
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6206,35 +6146,31 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6282,7 +6218,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6294,27 +6230,27 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6325,32 +6261,28 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6386,53 +6318,53 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>326</v>
+        <v>186</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6441,10 +6373,10 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6453,20 +6385,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>334</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6514,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>186</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6526,10 +6454,10 @@
         <v>142</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6538,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6546,7 +6474,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6569,18 +6497,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6604,13 +6530,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6628,7 +6554,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6640,27 +6566,27 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6674,28 +6600,28 @@
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6744,7 +6670,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6759,16 +6685,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6776,7 +6702,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6787,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6799,20 +6725,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>361</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6860,31 +6782,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>360</v>
+        <v>181</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6892,7 +6814,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6915,20 +6837,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6964,19 +6882,17 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6988,13 +6904,13 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7008,9 +6924,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7031,13 +6949,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7088,22 +7006,22 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7120,18 +7038,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C46" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7143,17 +7063,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7202,7 +7120,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7211,13 +7129,13 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7234,43 +7152,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="C47" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7318,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7327,13 +7243,13 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7350,7 +7266,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7361,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7373,18 +7289,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7408,13 +7322,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7432,39 +7346,39 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7475,29 +7389,31 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7546,13 +7462,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -7561,16 +7477,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7578,7 +7494,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7589,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7601,19 +7517,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7638,13 +7552,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7662,13 +7576,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7677,16 +7591,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7694,7 +7608,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7717,17 +7631,19 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7776,7 +7692,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7791,16 +7707,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7808,7 +7724,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7831,18 +7747,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>180</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7866,13 +7780,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7890,7 +7804,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>181</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7902,19 +7816,19 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7922,18 +7836,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7945,18 +7859,18 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>413</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>183</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7992,43 +7906,43 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>412</v>
+        <v>186</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>418</v>
+        <v>167</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8036,9 +7950,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8059,13 +7975,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>141</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8116,25 +8032,25 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8148,7 +8064,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8171,19 +8087,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8232,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8247,16 +8163,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8264,7 +8180,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8275,7 +8191,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8287,16 +8203,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8344,25 +8264,25 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>187</v>
+        <v>388</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8376,18 +8296,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8399,17 +8319,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8458,22 +8376,22 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8490,11 +8408,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8507,26 +8425,24 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8574,7 +8490,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8589,7 +8505,7 @@
         <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8606,42 +8522,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>147</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>438</v>
+        <v>148</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8666,13 +8582,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8690,31 +8606,31 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>439</v>
+        <v>129</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8722,7 +8638,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8733,7 +8649,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8745,19 +8661,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8782,13 +8696,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8806,13 +8720,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8821,16 +8735,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>448</v>
+        <v>167</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8838,18 +8752,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8861,18 +8775,18 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>452</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8920,13 +8834,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8935,16 +8849,16 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>456</v>
+        <v>175</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8952,7 +8866,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8963,7 +8877,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8972,22 +8886,22 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>413</v>
+        <v>242</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>462</v>
+        <v>246</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9036,13 +8950,13 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9051,24 +8965,24 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>418</v>
+        <v>247</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>463</v>
+        <v>167</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9079,31 +8993,29 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9152,13 +9064,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9167,16 +9079,16 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9184,7 +9096,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9207,16 +9119,18 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9240,13 +9154,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9264,7 +9178,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>201</v>
+        <v>419</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9276,19 +9190,19 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9296,18 +9210,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9319,18 +9233,18 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9378,31 +9292,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9410,43 +9324,39 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9494,25 +9404,25 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>129</v>
+        <v>434</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
@@ -9526,7 +9436,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9534,10 +9444,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9546,21 +9456,23 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9608,13 +9520,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9623,16 +9535,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>175</v>
+        <v>440</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9640,7 +9552,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9666,10 +9578,10 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9720,7 +9632,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9735,7 +9647,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9752,11 +9664,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9778,13 +9690,13 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9822,19 +9734,19 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9849,7 +9761,7 @@
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -9866,41 +9778,43 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9948,19 +9862,19 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>129</v>
@@ -9980,7 +9894,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9988,7 +9902,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
@@ -10000,21 +9914,23 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10038,13 +9954,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>346</v>
+        <v>110</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>491</v>
+        <v>111</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>492</v>
+        <v>112</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10062,10 +9978,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -10077,24 +9993,24 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>129</v>
+        <v>450</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10102,33 +10018,35 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10176,7 +10094,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10191,16 +10109,16 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10208,18 +10126,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10228,19 +10146,19 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>463</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10290,13 +10208,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10305,16 +10223,16 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>129</v>
+        <v>467</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10322,7 +10240,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10330,7 +10248,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -10345,16 +10263,20 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>106</v>
+        <v>424</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10378,13 +10300,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10402,10 +10324,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10417,10 +10339,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>187</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
@@ -10429,11 +10351,695 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10443,7 +11049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,6 +951,19 @@
     <t>genderEffectiveDates</t>
   </si>
   <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-history-extension}
+</t>
+  </si>
+  <si>
+    <t>BC gender history</t>
+  </si>
+  <si>
+    <t>This extension allows the Client Registry to include historical gender codes in a single Patient resource.</t>
+  </si>
+  <si>
     <t>Patient.gender.value</t>
   </si>
   <si>
@@ -1000,6 +1013,16 @@
     <t>birthDateEffectiveDates</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-birthdate-history-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Birth Date history</t>
+  </si>
+  <si>
+    <t>This extension allows the Client Registry to include historical birth dates in a single Patient resource.</t>
+  </si>
+  <si>
     <t>Patient.birthDate.value</t>
   </si>
   <si>
@@ -1068,6 +1091,26 @@
     <t>The effective dates for the Patient's Death Date flag.</t>
   </si>
   <si>
+    <t>deathDateHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-deathdate-history-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Death Date history</t>
+  </si>
+  <si>
+    <t>This extension allows the Client Registry to include historical death dates and flags in a single Patient resource.</t>
+  </si>
+  <si>
+    <t>deathDateFlagHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-deathdate-flag-history-extension}
+</t>
+  </si>
+  <si>
     <t>Patient.deceased[x].value</t>
   </si>
   <si>
@@ -1170,7 +1213,17 @@
     <t>Patient.multipleBirth[x].extension</t>
   </si>
   <si>
-    <t>multipleBirthBusinessDates</t>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-multiplebirth-history-extension}
+</t>
+  </si>
+  <si>
+    <t>BC multiple birth history</t>
+  </si>
+  <si>
+    <t>This extension allows the Client Registry to include historical multiple birth values in a single Patient resource.</t>
+  </si>
+  <si>
+    <t>multipleBirthEffectiveDates</t>
   </si>
   <si>
     <t>Patient.photo</t>
@@ -1871,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5908,11 +5961,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5921,10 +5976,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5933,13 +5988,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5990,19 +6045,19 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
@@ -6020,9 +6075,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6030,35 +6085,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6106,7 +6157,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6118,27 +6169,27 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6146,31 +6197,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6218,7 +6273,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6230,27 +6285,27 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6261,7 +6316,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6273,13 +6328,13 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6318,29 +6373,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6360,11 +6417,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6373,7 +6428,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6385,13 +6440,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6430,16 +6485,14 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>186</v>
@@ -6451,7 +6504,7 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>137</v>
@@ -6474,9 +6527,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6497,13 +6552,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6554,19 +6609,19 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -6586,9 +6641,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6597,19 +6654,19 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>322</v>
@@ -6617,12 +6674,8 @@
       <c r="L42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6670,31 +6723,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6702,7 +6755,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6725,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6782,7 +6835,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6812,9 +6865,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6825,28 +6878,32 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6882,41 +6939,43 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6924,11 +6983,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6949,13 +7006,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7006,19 +7063,19 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7038,11 +7095,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7051,7 +7106,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7063,13 +7118,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7108,16 +7163,14 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>186</v>
@@ -7129,7 +7182,7 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>137</v>
@@ -7152,10 +7205,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>79</v>
@@ -7177,13 +7230,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7266,9 +7319,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7289,13 +7344,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7346,19 +7401,19 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7376,11 +7431,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7389,16 +7446,16 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>343</v>
@@ -7409,12 +7466,8 @@
       <c r="L49" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7462,7 +7515,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7471,22 +7524,22 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7494,9 +7547,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7517,18 +7572,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7552,13 +7605,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7576,31 +7629,31 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7608,9 +7661,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7631,20 +7686,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7692,31 +7743,31 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7724,7 +7775,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7747,13 +7798,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7804,7 +7855,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7819,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7834,13 +7885,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7850,27 +7901,29 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7906,19 +7959,19 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7930,19 +7983,19 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7950,11 +8003,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -7975,16 +8026,18 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8008,13 +8061,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8032,31 +8085,31 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8064,7 +8117,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8075,7 +8128,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8087,19 +8140,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8148,13 +8201,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8163,7 +8216,7 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>167</v>
@@ -8172,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8180,7 +8233,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8191,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8203,20 +8256,16 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>382</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8264,25 +8313,25 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8296,18 +8345,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8319,15 +8368,17 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8364,31 +8415,31 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>167</v>
@@ -8406,13 +8457,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="C58" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8422,7 +8475,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8431,17 +8484,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8505,7 +8556,7 @@
         <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8520,45 +8571,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8606,7 +8655,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8621,7 +8670,7 @@
         <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8638,7 +8687,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8661,17 +8710,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8696,13 +8747,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8720,7 +8771,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8786,7 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>167</v>
@@ -8744,7 +8795,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8752,7 +8803,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8763,7 +8814,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8775,17 +8826,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8834,22 +8887,22 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>167</v>
@@ -8858,7 +8911,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8866,7 +8919,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8877,7 +8930,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8889,20 +8942,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8950,31 +8999,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -8982,18 +9031,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9005,18 +9054,18 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>415</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9064,31 +9113,31 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9096,40 +9145,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9154,13 +9205,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9178,31 +9229,31 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9210,7 +9261,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9221,7 +9272,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9233,17 +9284,17 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9268,13 +9319,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9292,22 +9343,22 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>167</v>
@@ -9316,7 +9367,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9324,7 +9375,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9347,16 +9398,18 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9404,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9419,7 +9472,7 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>167</v>
@@ -9428,7 +9481,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9436,7 +9489,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9459,19 +9512,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>382</v>
+        <v>242</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>439</v>
+        <v>246</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9520,7 +9573,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9535,16 +9588,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>441</v>
+        <v>167</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9552,7 +9605,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9575,16 +9628,18 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9632,7 +9687,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9644,19 +9699,19 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9664,18 +9719,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9687,18 +9742,18 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9722,13 +9777,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9746,31 +9801,31 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9778,42 +9833,40 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>148</v>
+        <v>443</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9862,31 +9915,31 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -9894,7 +9947,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9902,7 +9955,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
@@ -9917,20 +9970,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N71" t="s" s="2">
         <v>449</v>
       </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -9954,13 +10003,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9978,10 +10027,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -9996,13 +10045,13 @@
         <v>450</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>167</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10010,7 +10059,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10021,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10033,19 +10082,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10094,13 +10143,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10109,16 +10158,16 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10126,18 +10175,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10149,17 +10198,15 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>463</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>464</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10208,31 +10255,31 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>467</v>
+        <v>167</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10240,18 +10287,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10260,23 +10307,21 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>183</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>184</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10324,25 +10369,25 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
@@ -10354,13 +10399,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10370,7 +10415,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>87</v>
@@ -10379,19 +10424,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>147</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>479</v>
+        <v>148</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10440,7 +10485,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10452,13 +10497,13 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
@@ -10472,7 +10517,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10480,7 +10525,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>86</v>
@@ -10495,16 +10540,20 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10528,13 +10577,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10552,10 +10601,10 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>181</v>
+        <v>461</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -10564,19 +10613,19 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>167</v>
+        <v>466</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10584,18 +10633,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -10607,18 +10656,20 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>183</v>
+        <v>470</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10666,31 +10717,31 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>167</v>
+        <v>474</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -10698,11 +10749,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10715,26 +10766,24 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>131</v>
+        <v>479</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>393</v>
+        <v>480</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10782,7 +10831,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10794,19 +10843,19 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>129</v>
+        <v>483</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -10814,7 +10863,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10822,7 +10871,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>86</v>
@@ -10837,7 +10886,7 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>486</v>
@@ -10848,7 +10897,9 @@
       <c r="M79" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -10896,10 +10947,10 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -10911,24 +10962,24 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10936,31 +10987,35 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -10984,13 +11039,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11008,13 +11063,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11023,7 +11078,7 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>167</v>
@@ -11038,8 +11093,576 @@
         <v>79</v>
       </c>
     </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN80">
+  <autoFilter ref="A1:AN85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11049,7 +11672,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
 </t>
   </si>
   <si>
-    <t>BC business dates</t>
+    <t>BC Business Dates</t>
   </si>
   <si>
     <t>The effective dates for the parent element.</t>
@@ -461,6 +461,19 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>deathDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Patient Death Date</t>
+  </si>
+  <si>
+    <t>The Patients death date and time as recorded in the Client Registry.  This also include death date history as requried.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -606,7 +619,7 @@
     <t>Patient.name.use</t>
   </si>
   <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>usual | official | nickanme</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.</t>
@@ -805,7 +818,7 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>phone | email</t>
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
@@ -854,7 +867,7 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>home | work | mobile</t>
   </si>
   <si>
     <t>Identifies the purpose for the contact point.</t>
@@ -958,7 +971,7 @@
 </t>
   </si>
   <si>
-    <t>BC gender history</t>
+    <t>BC Gender History</t>
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical gender codes in a single Patient resource.</t>
@@ -1017,7 +1030,7 @@
 </t>
   </si>
   <si>
-    <t>BC Birth Date history</t>
+    <t>BC Birth Date History</t>
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical birth dates in a single Patient resource.</t>
@@ -1062,53 +1075,14 @@
     <t>Patient.deceased[x].extension</t>
   </si>
   <si>
-    <t>deathDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-extension}
+    <t>deathDateFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-flag-extension}
 </t>
   </si>
   <si>
-    <t>BC Patient death date</t>
-  </si>
-  <si>
     <t>The Patients death date and time as recorded in the Client Registry.</t>
-  </si>
-  <si>
-    <t>deathDateEffectiveDates</t>
-  </si>
-  <si>
-    <t>deathDateFlagEffectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-flag-business-period-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Death Date flag business date</t>
-  </si>
-  <si>
-    <t>The effective dates for the Patient's Death Date flag.</t>
-  </si>
-  <si>
-    <t>deathDateHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-deathdate-history-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Death Date history</t>
-  </si>
-  <si>
-    <t>This extension allows the Client Registry to include historical death dates and flags in a single Patient resource.</t>
-  </si>
-  <si>
-    <t>deathDateFlagHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-deathdate-flag-history-extension}
-</t>
   </si>
   <si>
     <t>Patient.deceased[x].value</t>
@@ -1148,6 +1122,256 @@
     <t>PID-11</t>
   </si>
   <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
     <t>Patient.maritalStatus</t>
   </si>
   <si>
@@ -1217,7 +1441,7 @@
 </t>
   </si>
   <si>
-    <t>BC multiple birth history</t>
+    <t>BC multiple Birth History</t>
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical multiple birth values in a single Patient resource.</t>
@@ -1924,7 +2148,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1934,7 +2158,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1971,7 +2195,7 @@
     <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3115,32 +3339,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -3148,12 +3374,8 @@
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3201,7 +3423,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3210,13 +3432,13 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3233,11 +3455,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3250,23 +3472,25 @@
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3315,7 +3539,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3327,19 +3551,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3347,7 +3571,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3358,38 +3582,34 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3433,13 +3653,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3448,24 +3668,24 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3473,39 +3693,41 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="Q14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3549,13 +3771,13 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3564,24 +3786,24 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3589,31 +3811,35 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3661,31 +3887,31 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3697,14 +3923,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -3716,7 +3942,7 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>183</v>
@@ -3724,9 +3950,7 @@
       <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3763,34 +3987,34 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3807,43 +4031,41 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3867,44 +4089,46 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3913,7 +4137,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3921,7 +4145,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3929,7 +4153,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
@@ -3938,25 +4162,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3981,13 +4205,11 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4005,7 +4227,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4020,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4029,7 +4251,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4037,11 +4259,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4063,15 +4285,17 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4119,7 +4343,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4134,7 +4358,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4143,7 +4367,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4151,18 +4375,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4177,13 +4401,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4233,13 +4457,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4248,7 +4472,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4257,7 +4481,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4265,11 +4489,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4291,12 +4515,14 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4345,7 +4571,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4586,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4369,7 +4595,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4377,7 +4603,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4403,10 +4629,10 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4457,7 +4683,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4472,7 +4698,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4481,7 +4707,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4489,7 +4715,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4500,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4512,18 +4738,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4571,13 +4795,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4586,7 +4810,7 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4595,15 +4819,15 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4614,10 +4838,10 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4626,19 +4850,17 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4687,13 +4909,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4702,24 +4924,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4730,28 +4952,32 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4799,31 +5025,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4831,18 +5057,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4854,7 +5080,7 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>183</v>
@@ -4862,9 +5088,7 @@
       <c r="L26" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4901,34 +5125,34 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -4945,18 +5169,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4965,18 +5189,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5001,44 +5227,46 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5047,7 +5275,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5055,7 +5283,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5078,20 +5306,16 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5115,13 +5339,11 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5139,7 +5361,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5148,13 +5370,13 @@
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5163,7 +5385,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5171,7 +5393,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5188,25 +5410,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5231,11 +5453,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5253,7 +5477,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5492,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5277,7 +5501,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5285,7 +5509,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5302,24 +5526,26 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5343,13 +5569,11 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5367,7 +5591,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5382,7 +5606,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5391,7 +5615,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5399,7 +5623,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5422,15 +5646,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5494,7 +5720,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5503,13 +5729,13 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>286</v>
       </c>
@@ -5519,13 +5745,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5534,7 +5760,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>287</v>
@@ -5542,12 +5768,8 @@
       <c r="L32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5571,13 +5793,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5595,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5610,24 +5832,24 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5635,31 +5857,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5683,13 +5909,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5707,7 +5933,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5719,19 +5945,19 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5739,7 +5965,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5750,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5762,13 +5988,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5807,29 +6033,31 @@
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
@@ -5849,11 +6077,9 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5862,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5874,13 +6100,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5919,19 +6145,17 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5940,7 +6164,7 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>137</v>
@@ -5961,12 +6185,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>79</v>
@@ -5976,10 +6200,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5988,13 +6212,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6045,7 +6269,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6075,11 +6299,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6088,10 +6314,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6100,13 +6326,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6157,19 +6383,19 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6187,9 +6413,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6197,35 +6423,31 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6273,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6285,27 +6507,27 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6313,31 +6535,35 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6385,7 +6611,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6397,27 +6623,27 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6428,7 +6654,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6440,13 +6666,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6485,29 +6711,31 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6527,11 +6755,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6540,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6552,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6597,19 +6823,17 @@
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>137</v>
@@ -6639,12 +6863,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>79</v>
@@ -6654,10 +6878,10 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6666,13 +6890,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6723,7 +6947,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6753,11 +6977,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6766,10 +6992,10 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6778,13 +7004,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6835,19 +7061,19 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6865,7 +7091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>328</v>
       </c>
@@ -6881,16 +7107,16 @@
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>329</v>
@@ -6898,12 +7124,8 @@
       <c r="L44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6951,7 +7173,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6963,27 +7185,27 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6997,25 +7219,29 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7063,7 +7289,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7075,19 +7301,19 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7095,7 +7321,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7106,7 +7332,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7118,13 +7344,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7163,29 +7389,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7205,11 +7433,9 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7218,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7230,13 +7456,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7275,19 +7501,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7296,7 +7520,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7317,9 +7541,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>341</v>
@@ -7335,7 +7559,7 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7344,13 +7568,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>141</v>
+        <v>343</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7401,7 +7625,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7433,11 +7657,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7458,13 +7680,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7515,19 +7737,19 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7545,13 +7767,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7560,28 +7780,32 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7629,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7638,22 +7862,22 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7661,11 +7885,9 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7686,13 +7908,13 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7743,22 +7965,22 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7775,18 +7997,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7798,15 +8020,17 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7843,34 +8067,34 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>354</v>
+        <v>190</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7885,9 +8109,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7898,31 +8122,31 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7935,7 +8159,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>79</v>
@@ -7947,13 +8171,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7971,13 +8195,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -7986,16 +8210,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8003,7 +8227,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8023,21 +8247,21 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8049,7 +8273,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>79</v>
@@ -8061,13 +8285,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>369</v>
+        <v>196</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8309,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8100,16 +8324,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>372</v>
+        <v>199</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8117,7 +8341,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8137,22 +8361,22 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>376</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8165,7 +8389,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8201,7 +8425,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8216,16 +8440,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8457,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8244,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8253,16 +8477,16 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8277,7 +8501,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8313,22 +8537,22 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>181</v>
+        <v>388</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8337,7 +8561,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8345,18 +8569,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8365,20 +8589,18 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8391,7 +8613,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8415,34 +8637,34 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>186</v>
+        <v>396</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>167</v>
+        <v>397</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8451,48 +8673,48 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8505,7 +8727,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8541,22 +8763,22 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>186</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8565,21 +8787,19 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8589,22 +8809,22 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8655,22 +8875,22 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8679,7 +8899,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8687,18 +8907,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8707,23 +8927,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8735,7 +8951,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8771,13 +8987,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8786,16 +9002,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8803,7 +9019,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8814,7 +9030,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8823,23 +9039,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>398</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8887,31 +9101,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8919,7 +9133,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8939,19 +9153,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8963,7 +9179,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -8999,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>181</v>
+        <v>435</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9011,10 +9227,10 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9023,7 +9239,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9031,18 +9247,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9054,18 +9270,18 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9089,13 +9305,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9113,31 +9329,31 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>186</v>
+        <v>437</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9145,42 +9361,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>147</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>148</v>
+        <v>453</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9229,31 +9445,31 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>129</v>
+        <v>454</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9261,7 +9477,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9272,7 +9488,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9284,18 +9500,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>413</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>414</v>
+        <v>184</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9319,13 +9533,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9343,31 +9557,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>412</v>
+        <v>185</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9375,18 +9589,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9398,18 +9612,18 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>421</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9445,53 +9659,55 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9503,7 +9719,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9512,20 +9728,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9573,7 +9785,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9585,29 +9797,31 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9619,7 +9833,7 @@
         <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9628,18 +9842,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>431</v>
+        <v>140</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>141</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9687,31 +9899,31 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9719,7 +9931,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9730,7 +9942,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9742,17 +9954,19 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>106</v>
+        <v>463</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>287</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -9777,13 +9991,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9801,13 +10015,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9816,16 +10030,16 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>293</v>
+        <v>468</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9833,7 +10047,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9844,7 +10058,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9856,17 +10070,19 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9915,31 +10131,31 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>476</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -9947,7 +10163,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9970,13 +10186,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>448</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>449</v>
+        <v>184</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10027,7 +10243,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>447</v>
+        <v>185</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10039,13 +10255,13 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>450</v>
+        <v>171</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -10059,11 +10275,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10082,20 +10298,18 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>398</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>452</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>453</v>
+        <v>188</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10143,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>451</v>
+        <v>190</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10155,13 +10369,13 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>456</v>
+        <v>171</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -10175,39 +10389,43 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>482</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10255,22 +10473,22 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>181</v>
+        <v>484</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10287,11 +10505,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10310,18 +10528,18 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>183</v>
+        <v>486</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10345,13 +10563,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10369,7 +10587,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10381,19 +10599,19 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>167</v>
+        <v>491</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10401,42 +10619,40 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>409</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10485,31 +10701,31 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10517,7 +10733,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10525,10 +10741,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -10540,19 +10756,19 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>465</v>
+        <v>250</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10577,13 +10793,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10601,13 +10817,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10616,16 +10832,16 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>467</v>
+        <v>171</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10633,7 +10849,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10656,19 +10872,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -10717,7 +10931,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10732,16 +10946,16 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>171</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -10749,18 +10963,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -10772,18 +10986,18 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>479</v>
+        <v>106</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>480</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10807,13 +11021,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -10831,13 +11045,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -10846,16 +11060,16 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>483</v>
+        <v>297</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -10863,7 +11077,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10883,22 +11097,20 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -10947,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10956,30 +11168,30 @@
         <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>490</v>
+        <v>171</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10990,32 +11202,28 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11063,13 +11271,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11078,10 +11286,10 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11095,7 +11303,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11106,7 +11314,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11118,16 +11326,20 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>471</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>179</v>
+        <v>525</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11175,25 +11387,25 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>181</v>
+        <v>524</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>167</v>
+        <v>529</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
@@ -11207,18 +11419,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11230,7 +11442,7 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>183</v>
@@ -11238,9 +11450,7 @@
       <c r="L82" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11289,22 +11499,22 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11321,11 +11531,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>408</v>
+        <v>148</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11338,26 +11548,24 @@
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>409</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>410</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11405,7 +11613,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>411</v>
+        <v>190</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11420,7 +11628,7 @@
         <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11437,41 +11645,43 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>501</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11519,31 +11729,31 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11551,7 +11761,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11571,19 +11781,23 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>106</v>
+        <v>438</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11607,13 +11821,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>508</v>
+        <v>111</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>509</v>
+        <v>112</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11631,7 +11845,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>86</v>
@@ -11646,23 +11860,1053 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN85">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11672,7 +12916,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -473,7 +473,7 @@
     <t>BC Patient Death Date</t>
   </si>
   <si>
-    <t>The Patients death date and time as recorded in the Client Registry.  This also include death date history as requried.</t>
+    <t>The Patients death date and time as recorded in the Client Registry.  This also include death date history as required.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1441,7 +1441,7 @@
 </t>
   </si>
   <si>
-    <t>BC multiple Birth History</t>
+    <t>BC Multiple Birth History</t>
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical multiple birth values in a single Patient resource.</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,7 +619,7 @@
     <t>Patient.name.use</t>
   </si>
   <si>
-    <t>usual | official | nickanme</t>
+    <t>usual | official | nickname</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$110</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -525,6 +525,211 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
+</t>
+  </si>
+  <si>
+    <t>BC SourceID and UserID</t>
+  </si>
+  <si>
+    <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -555,9 +760,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -592,30 +794,9 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Patient.name.use</t>
   </si>
   <si>
@@ -629,9 +810,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
@@ -757,10 +935,6 @@
   </si>
   <si>
     <t>Patient.name.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when name was/is in use</t>
@@ -1375,10 +1549,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1386,9 +1556,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -1609,10 +1776,6 @@
   </si>
   <si>
     <t>Patient.contact.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that is associated with the contact</t>
@@ -2148,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2180,7 +2343,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.8515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3569,7 +3732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3585,7 +3748,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3702,76 +3865,70 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3783,16 +3940,16 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3801,45 +3958,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3875,19 +4030,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3899,29 +4054,31 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3933,7 +4090,7 @@
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3942,13 +4099,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3999,22 +4156,22 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4031,41 +4188,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4089,46 +4248,46 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4137,7 +4296,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4145,7 +4304,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4153,7 +4312,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
@@ -4162,25 +4321,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4205,29 +4364,31 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4242,7 +4403,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4251,7 +4412,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4259,7 +4420,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4282,19 +4443,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4307,7 +4468,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4343,7 +4504,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4358,7 +4519,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4367,7 +4528,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4375,11 +4536,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4401,13 +4562,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4421,7 +4582,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4457,7 +4618,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4472,7 +4633,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4481,7 +4642,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4489,18 +4650,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4512,17 +4673,15 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4571,13 +4730,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4586,7 +4745,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4595,7 +4754,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4603,7 +4762,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4614,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4626,15 +4785,17 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4683,13 +4844,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4698,16 +4859,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4715,7 +4876,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4726,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>232</v>
@@ -4746,12 +4907,18 @@
       <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4795,13 +4962,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4810,24 +4977,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4835,13 +5002,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4850,17 +5017,19 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4909,13 +5078,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4924,24 +5093,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4952,32 +5121,28 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5025,31 +5190,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5057,18 +5222,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5080,15 +5245,17 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5125,34 +5292,34 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5167,23 +5334,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5192,17 +5361,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5239,19 +5406,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5266,7 +5433,7 @@
         <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5283,7 +5450,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5291,7 +5458,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5300,7 +5467,7 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -5309,13 +5476,17 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5339,11 +5510,11 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5361,7 +5532,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5370,13 +5541,13 @@
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5385,7 +5556,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5393,7 +5564,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5419,16 +5590,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5477,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5492,7 +5663,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5501,7 +5672,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5509,11 +5680,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5526,26 +5697,24 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5569,11 +5738,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5591,7 +5762,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5777,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5615,7 +5786,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5623,18 +5794,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5646,16 +5817,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5705,13 +5876,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5891,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5729,7 +5900,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5737,7 +5908,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5748,7 +5919,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5760,13 +5931,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5817,13 +5988,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5832,7 +6003,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5841,15 +6012,15 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5857,13 +6028,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5872,20 +6043,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5909,13 +6076,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5933,13 +6100,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5948,16 +6115,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5965,7 +6132,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5985,19 +6152,21 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6045,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6057,10 +6226,10 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6069,15 +6238,15 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6091,25 +6260,29 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6145,17 +6318,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6167,19 +6342,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6187,11 +6362,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6212,13 +6385,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6269,22 +6442,22 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6299,15 +6472,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6317,7 +6488,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6326,15 +6497,17 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6371,19 +6544,19 @@
         <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6392,13 +6565,13 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6413,11 +6586,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6429,7 +6604,7 @@
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6438,13 +6613,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6495,19 +6670,19 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6525,9 +6700,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6535,13 +6710,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6550,7 +6725,7 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>314</v>
@@ -6558,12 +6733,8 @@
       <c r="L39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6587,13 +6758,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6611,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6620,16 +6789,16 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6638,12 +6807,12 @@
         <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6663,19 +6832,23 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6723,7 +6896,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6735,10 +6908,10 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6747,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6755,7 +6928,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6766,28 +6939,32 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6811,44 +6988,44 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6857,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6865,11 +7042,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6887,18 +7062,20 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6947,22 +7124,22 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6971,19 +7148,17 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6992,25 +7167,25 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7061,22 +7236,22 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7085,15 +7260,15 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7101,31 +7276,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7149,13 +7328,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7173,7 +7352,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7185,27 +7364,27 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7219,29 +7398,25 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7289,7 +7464,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7301,19 +7476,19 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7321,7 +7496,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7332,7 +7507,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7344,13 +7519,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7389,31 +7564,29 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7433,9 +7606,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7444,7 +7619,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7456,13 +7631,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7501,17 +7676,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7520,7 +7697,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7543,10 +7720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7556,7 +7733,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7568,13 +7745,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7625,7 +7802,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7655,11 +7832,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7671,7 +7850,7 @@
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7680,13 +7859,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7737,19 +7916,19 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7767,9 +7946,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7780,32 +7959,28 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7853,39 +8028,39 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7893,31 +8068,35 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7965,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7977,38 +8156,38 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8020,17 +8199,15 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8067,34 +8244,34 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8111,7 +8288,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8122,32 +8299,28 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8159,7 +8332,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>79</v>
@@ -8171,46 +8344,44 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>366</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8219,7 +8390,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8227,9 +8398,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8247,20 +8420,18 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>369</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8273,7 +8444,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>79</v>
@@ -8285,13 +8456,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8309,22 +8480,22 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8333,17 +8504,19 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8352,32 +8525,28 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8389,7 +8558,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8425,22 +8594,22 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8449,17 +8618,19 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8468,25 +8639,25 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8501,7 +8672,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8537,7 +8708,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8546,13 +8717,13 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8561,7 +8732,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8569,11 +8740,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8589,16 +8760,16 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8613,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8649,7 +8820,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8661,10 +8832,10 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8673,19 +8844,19 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8695,27 +8866,29 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8727,7 +8900,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8763,7 +8936,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8778,16 +8951,16 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8795,11 +8968,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8815,16 +8988,16 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8875,7 +9048,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>412</v>
+        <v>166</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8887,10 +9060,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8899,7 +9072,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8907,18 +9080,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8927,16 +9100,16 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>133</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8951,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8975,34 +9148,32 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>420</v>
+        <v>172</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9011,17 +9182,19 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9033,26 +9206,24 @@
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>145</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9101,22 +9272,22 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>427</v>
+        <v>172</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9125,17 +9296,19 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9147,27 +9320,25 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>176</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9179,7 +9350,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9215,22 +9386,22 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>435</v>
+        <v>172</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9239,7 +9410,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9247,7 +9418,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9270,18 +9441,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9305,13 +9474,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9329,7 +9498,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9341,27 +9510,27 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9372,31 +9541,31 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9445,13 +9614,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9460,16 +9629,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9477,7 +9646,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9503,10 +9672,10 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9557,7 +9726,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9572,7 +9741,7 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9589,7 +9758,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9615,10 +9784,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>151</v>
@@ -9662,7 +9831,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
@@ -9671,7 +9840,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9686,7 +9855,7 @@
         <v>137</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9703,10 +9872,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>79</v>
@@ -9716,7 +9885,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9728,13 +9897,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>458</v>
+        <v>174</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>459</v>
+        <v>175</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9785,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9815,13 +9984,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9833,25 +10000,29 @@
         <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9863,7 +10034,7 @@
         <v>79</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>79</v>
@@ -9875,13 +10046,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9899,22 +10070,22 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>190</v>
+        <v>423</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9923,7 +10094,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9931,7 +10102,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9942,7 +10113,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9951,23 +10122,21 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>463</v>
+        <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9979,7 +10148,7 @@
         <v>79</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>79</v>
@@ -9991,13 +10160,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10015,13 +10184,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10030,16 +10199,16 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>468</v>
+        <v>257</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10047,7 +10216,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10058,7 +10227,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10067,22 +10236,22 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>471</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>475</v>
+        <v>263</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10095,7 +10264,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10131,31 +10300,31 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>476</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>477</v>
+        <v>265</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10163,7 +10332,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10174,7 +10343,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10183,16 +10352,16 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>183</v>
+        <v>442</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>184</v>
+        <v>443</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10207,7 +10376,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10243,22 +10412,22 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>185</v>
+        <v>445</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10267,7 +10436,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10275,18 +10444,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10295,20 +10464,18 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>450</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10321,7 +10488,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10357,22 +10524,22 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>190</v>
+        <v>453</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>171</v>
+        <v>454</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10381,7 +10548,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10389,43 +10556,41 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10437,7 +10602,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10473,22 +10638,22 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>129</v>
+        <v>463</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10497,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10505,18 +10670,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10525,21 +10690,19 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>438</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10563,13 +10726,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10587,13 +10750,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10602,16 +10765,16 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10619,11 +10782,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10639,21 +10802,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10665,7 +10826,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10701,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10716,16 +10877,16 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>179</v>
+        <v>478</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10733,7 +10894,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10744,7 +10905,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -10753,23 +10914,21 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10817,13 +10976,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10832,16 +10991,16 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>251</v>
+        <v>485</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10849,7 +11008,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10869,20 +11028,20 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -10895,7 +11054,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -10931,7 +11090,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10946,16 +11105,16 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -10963,7 +11122,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10986,17 +11145,17 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>291</v>
+        <v>495</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11021,13 +11180,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>295</v>
+        <v>498</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>296</v>
+        <v>499</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11045,7 +11204,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11060,16 +11219,16 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>297</v>
+        <v>500</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>171</v>
+        <v>501</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11077,7 +11236,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11100,17 +11259,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11159,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11168,22 +11329,22 @@
         <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11191,7 +11352,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11214,13 +11375,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>521</v>
+        <v>164</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>522</v>
+        <v>165</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11271,7 +11432,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>520</v>
+        <v>166</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11283,13 +11444,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>523</v>
+        <v>167</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11303,11 +11464,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11326,20 +11487,18 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>471</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>170</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11375,19 +11534,19 @@
         <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>524</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11399,13 +11558,13 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>529</v>
+        <v>167</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
@@ -11417,11 +11576,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11430,10 +11591,10 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11442,13 +11603,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>513</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>183</v>
+        <v>514</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>184</v>
+        <v>515</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11499,22 +11660,22 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11529,23 +11690,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C83" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11554,17 +11717,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11613,7 +11774,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11628,7 +11789,7 @@
         <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11643,45 +11804,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C84" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11729,7 +11888,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>484</v>
+        <v>172</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11744,7 +11903,7 @@
         <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -11761,7 +11920,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11769,10 +11928,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -11784,19 +11943,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11821,13 +11980,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11845,13 +12004,13 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -11860,16 +12019,16 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>540</v>
+        <v>167</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -11877,7 +12036,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11888,7 +12047,7 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>79</v>
@@ -11900,19 +12059,19 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>164</v>
+        <v>526</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -11961,31 +12120,31 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>548</v>
+        <v>167</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -11993,18 +12152,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12016,17 +12175,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>552</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>553</v>
+        <v>164</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12075,31 +12232,31 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>550</v>
+        <v>166</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>556</v>
+        <v>167</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12107,18 +12264,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12127,23 +12284,21 @@
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>559</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12191,25 +12346,25 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>558</v>
+        <v>172</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>518</v>
+        <v>167</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
@@ -12221,13 +12376,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12237,7 +12392,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>87</v>
@@ -12246,19 +12401,19 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>471</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>567</v>
+        <v>151</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>568</v>
+        <v>152</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12307,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12319,13 +12474,13 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>569</v>
+        <v>129</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>79</v>
@@ -12339,7 +12494,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12350,7 +12505,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12362,16 +12517,18 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>183</v>
+        <v>541</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>184</v>
+        <v>542</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12395,13 +12552,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12419,31 +12576,31 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>185</v>
+        <v>540</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>171</v>
+        <v>546</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12451,18 +12608,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12474,18 +12631,18 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>187</v>
+        <v>549</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12533,31 +12690,31 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>190</v>
+        <v>548</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12565,11 +12722,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12582,25 +12739,25 @@
         <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>151</v>
+        <v>556</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12649,7 +12806,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12661,19 +12818,19 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12681,7 +12838,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12689,7 +12846,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>86</v>
@@ -12701,21 +12858,21 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>574</v>
+        <v>405</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12763,10 +12920,10 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -12778,16 +12935,16 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12795,7 +12952,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12803,7 +12960,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>86</v>
@@ -12815,19 +12972,21 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>580</v>
+        <v>348</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -12851,13 +13010,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>581</v>
+        <v>352</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>582</v>
+        <v>353</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -12875,10 +13034,10 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -12890,23 +13049,1853 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AK97" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN110">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12916,7 +14905,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI109">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,6 +568,19 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
+    <t>idStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-identifier-status-extension}
+</t>
+  </si>
+  <si>
+    <t>Identifier status</t>
+  </si>
+  <si>
+    <t>Identifier status.</t>
   </si>
   <si>
     <t>Patient.identifier.use</t>
@@ -1604,6 +1617,9 @@
     <t>Patient.multipleBirth[x].extension</t>
   </si>
   <si>
+    <t>multipleBirthEffectiveDates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-multiplebirth-history-extension}
 </t>
   </si>
@@ -1612,9 +1628,6 @@
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical multiple birth values in a single Patient resource.</t>
-  </si>
-  <si>
-    <t>multipleBirthEffectiveDates</t>
   </si>
   <si>
     <t>Patient.photo</t>
@@ -2311,7 +2324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4186,11 +4199,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4202,29 +4217,25 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4248,13 +4259,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4272,22 +4283,22 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4296,7 +4307,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4304,7 +4315,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4321,25 +4332,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4364,13 +4375,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4388,7 +4399,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4403,7 +4414,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4412,7 +4423,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4420,7 +4431,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4443,19 +4454,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4468,7 +4479,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4480,13 +4491,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4504,7 +4515,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4519,7 +4530,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4528,7 +4539,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4536,7 +4547,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4559,18 +4570,20 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4618,7 +4631,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4633,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4642,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4650,7 +4663,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4673,15 +4686,17 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4694,7 +4709,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4730,7 +4745,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4745,7 +4760,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4754,7 +4769,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4762,7 +4777,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4785,17 +4800,15 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4844,7 +4857,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4859,7 +4872,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4868,7 +4881,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4876,7 +4889,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4893,76 +4906,72 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4977,24 +4986,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5002,39 +5011,41 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5078,13 +5089,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5093,24 +5104,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5118,31 +5129,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5190,31 +5205,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5222,18 +5237,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5245,17 +5260,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5292,31 +5305,31 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>167</v>
@@ -5334,25 +5347,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5361,15 +5372,17 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5406,16 +5419,16 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>172</v>
@@ -5433,7 +5446,7 @@
         <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5448,45 +5461,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5510,11 +5521,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5532,22 +5545,22 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5556,7 +5569,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5564,7 +5577,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5572,7 +5585,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5581,25 +5594,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5624,13 +5637,11 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5648,7 +5659,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5663,7 +5674,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5672,7 +5683,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5680,11 +5691,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5706,15 +5717,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5762,7 +5775,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5777,7 +5790,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5786,7 +5799,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5794,18 +5807,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5820,13 +5833,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5876,13 +5889,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5891,7 +5904,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5900,7 +5913,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5908,11 +5921,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5934,12 +5947,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5988,7 +6003,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6003,7 +6018,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -6012,7 +6027,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6035,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6046,10 +6061,10 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6100,7 +6115,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6115,7 +6130,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6124,7 +6139,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6132,7 +6147,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6143,7 +6158,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6155,18 +6170,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6214,13 +6227,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6229,7 +6242,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6238,15 +6251,15 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6257,10 +6270,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6269,19 +6282,17 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6330,13 +6341,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6345,24 +6356,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6373,28 +6384,32 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6442,31 +6457,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6474,18 +6489,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6497,17 +6512,15 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6544,31 +6557,31 @@
         <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>167</v>
@@ -6586,25 +6599,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6613,15 +6624,17 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6658,16 +6671,16 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>172</v>
@@ -6685,7 +6698,7 @@
         <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6700,11 +6713,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6716,22 +6731,22 @@
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6758,11 +6773,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6780,22 +6797,22 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6804,7 +6821,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6812,7 +6829,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6835,20 +6852,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6872,13 +6885,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6896,7 +6907,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6905,13 +6916,13 @@
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6920,7 +6931,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6928,7 +6939,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6945,25 +6956,25 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6988,11 +6999,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7010,7 +7023,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7025,7 +7038,7 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7034,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7042,7 +7055,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7059,24 +7072,26 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7100,13 +7115,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7124,7 +7137,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7139,7 +7152,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7148,7 +7161,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7156,7 +7169,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7179,15 +7192,17 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7251,7 +7266,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7260,13 +7275,13 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>347</v>
       </c>
@@ -7276,13 +7291,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7291,7 +7306,7 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>348</v>
@@ -7299,12 +7314,8 @@
       <c r="L44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7328,13 +7339,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7352,7 +7363,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7367,24 +7378,24 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7392,31 +7403,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7440,13 +7455,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7476,19 +7491,19 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7496,7 +7511,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7507,7 +7522,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7519,13 +7534,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7564,29 +7579,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7606,11 +7623,9 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7631,13 +7646,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7676,16 +7691,14 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>172</v>
@@ -7697,7 +7710,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7718,12 +7731,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7733,10 +7746,10 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7745,13 +7758,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7834,7 +7847,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>173</v>
@@ -7946,11 +7959,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7959,10 +7974,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7971,13 +7986,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8028,19 +8043,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8058,9 +8073,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8068,35 +8083,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8144,7 +8155,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8156,27 +8167,27 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8184,31 +8195,35 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8256,7 +8271,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8268,27 +8283,27 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8299,7 +8314,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8311,13 +8326,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8356,29 +8371,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8398,11 +8415,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8423,13 +8438,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8468,16 +8483,14 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>172</v>
@@ -8489,7 +8502,7 @@
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>137</v>
@@ -8510,12 +8523,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8525,10 +8538,10 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8537,13 +8550,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8626,7 +8639,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>173</v>
@@ -8738,11 +8751,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8751,10 +8766,10 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8763,13 +8778,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8820,19 +8835,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8850,7 +8865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>389</v>
       </c>
@@ -8866,16 +8881,16 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>390</v>
@@ -8883,12 +8898,8 @@
       <c r="L58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8936,7 +8947,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8948,27 +8959,27 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8982,25 +8993,29 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9048,7 +9063,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>166</v>
+        <v>393</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9060,19 +9075,19 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9080,7 +9095,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9091,7 +9106,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9103,13 +9118,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9148,29 +9163,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9188,13 +9205,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9203,10 +9218,10 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9230,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9260,16 +9275,14 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>172</v>
@@ -9281,7 +9294,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9304,10 +9317,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9329,13 +9342,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>403</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9416,11 +9429,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9432,7 +9447,7 @@
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9441,13 +9456,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9498,19 +9513,19 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>403</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9528,9 +9543,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9541,32 +9556,28 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>405</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9614,39 +9625,39 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9657,28 +9668,32 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>409</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9726,31 +9741,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>166</v>
+        <v>408</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>167</v>
+        <v>414</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9758,18 +9773,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9781,17 +9796,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9828,31 +9841,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>167</v>
@@ -9870,25 +9883,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9897,15 +9908,17 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9942,16 +9955,16 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>172</v>
@@ -9969,7 +9982,7 @@
         <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9984,11 +9997,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10000,29 +10015,25 @@
         <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>416</v>
+        <v>175</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10034,7 +10045,7 @@
         <v>79</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>79</v>
@@ -10046,13 +10057,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10070,22 +10081,22 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>423</v>
+        <v>172</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10094,7 +10105,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10102,7 +10113,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10119,7 +10130,7 @@
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>87</v>
@@ -10128,15 +10139,17 @@
         <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10148,7 +10161,7 @@
         <v>79</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>79</v>
@@ -10160,13 +10173,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10184,7 +10197,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10199,7 +10212,7 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10208,7 +10221,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10216,7 +10229,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10239,20 +10252,18 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10264,7 +10275,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10276,13 +10287,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10315,7 +10326,7 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10324,7 +10335,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10332,7 +10343,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10343,7 +10354,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10358,13 +10369,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10376,7 +10391,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10412,13 +10427,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10427,7 +10442,7 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>446</v>
+        <v>269</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10436,7 +10451,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10444,18 +10459,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10470,10 +10485,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10488,7 +10503,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10524,13 +10539,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10539,7 +10554,7 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10548,7 +10563,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10556,11 +10571,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10582,14 +10597,12 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10602,7 +10615,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10638,7 +10651,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10653,7 +10666,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10662,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10670,11 +10683,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10696,12 +10709,14 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10714,7 +10729,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10750,7 +10765,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10765,7 +10780,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10774,7 +10789,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10782,11 +10797,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10808,10 +10823,10 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10826,7 +10841,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10862,7 +10877,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10877,7 +10892,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10886,7 +10901,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10894,11 +10909,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10920,14 +10935,12 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10940,7 +10953,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -10976,7 +10989,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10991,7 +11004,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11000,7 +11013,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11008,7 +11021,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11031,18 +11044,18 @@
         <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11054,7 +11067,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11090,7 +11103,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11105,7 +11118,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11114,7 +11127,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11122,7 +11135,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11142,20 +11155,20 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11168,7 +11181,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11180,13 +11193,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11204,7 +11217,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11219,16 +11232,16 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>500</v>
+        <v>304</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11236,7 +11249,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11259,19 +11272,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>504</v>
+        <v>192</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11296,13 +11307,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11320,7 +11331,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11335,16 +11346,16 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>167</v>
+        <v>505</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11352,7 +11363,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11375,16 +11386,20 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11432,7 +11447,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11444,19 +11459,19 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11464,18 +11479,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11487,17 +11502,15 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11534,31 +11547,31 @@
         <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>167</v>
@@ -11576,15 +11589,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11594,7 +11605,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11603,15 +11614,17 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>514</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11648,16 +11661,16 @@
         <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>172</v>
@@ -11675,7 +11688,7 @@
         <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11692,10 +11705,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>79</v>
@@ -11806,7 +11819,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>173</v>
@@ -11918,11 +11931,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11951,12 +11966,8 @@
       <c r="L85" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>522</v>
-      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12004,7 +12015,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>517</v>
+        <v>172</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12016,19 +12027,19 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12036,7 +12047,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12059,19 +12070,19 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12120,7 +12131,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12132,10 +12143,10 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>531</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>167</v>
@@ -12144,7 +12155,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12152,7 +12163,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12163,7 +12174,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12175,16 +12186,20 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>530</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>164</v>
+        <v>531</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12232,25 +12247,25 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
@@ -12264,18 +12279,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12287,17 +12302,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12346,19 +12359,19 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>167</v>
@@ -12378,11 +12391,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>536</v>
+        <v>148</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12395,26 +12408,24 @@
         <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>537</v>
+        <v>169</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>538</v>
+        <v>170</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12462,7 +12473,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12477,7 +12488,7 @@
         <v>137</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -12494,11 +12505,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12511,13 +12522,13 @@
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>541</v>
@@ -12525,9 +12536,11 @@
       <c r="L90" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M90" s="2"/>
+      <c r="M90" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>543</v>
+        <v>152</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12552,13 +12565,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12576,7 +12589,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12588,19 +12601,19 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12608,7 +12621,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12619,7 +12632,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12631,17 +12644,17 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12666,13 +12679,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12690,13 +12703,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12705,7 +12718,7 @@
         <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>167</v>
@@ -12714,7 +12727,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12722,7 +12735,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12733,7 +12746,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12745,19 +12758,17 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12806,13 +12817,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12821,7 +12832,7 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>167</v>
@@ -12830,7 +12841,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12838,7 +12849,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12849,7 +12860,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12861,17 +12872,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>561</v>
+        <v>311</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12920,13 +12933,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12935,7 +12948,7 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>167</v>
@@ -12944,7 +12957,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12952,7 +12965,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12975,10 +12988,10 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>106</v>
+        <v>409</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>348</v>
+        <v>563</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>564</v>
@@ -13010,13 +13023,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13034,7 +13047,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13049,7 +13062,7 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>167</v>
@@ -13089,17 +13102,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13124,13 +13137,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13157,13 +13170,13 @@
         <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>572</v>
+        <v>358</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>167</v>
@@ -13172,7 +13185,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13180,7 +13193,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13203,16 +13216,18 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13260,7 +13275,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13269,13 +13284,13 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>167</v>
@@ -13284,7 +13299,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13303,7 +13318,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13315,7 +13330,7 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>526</v>
+        <v>220</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>579</v>
@@ -13323,12 +13338,8 @@
       <c r="L97" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>582</v>
-      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13382,7 +13393,7 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13391,10 +13402,10 @@
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>584</v>
+        <v>167</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
@@ -13408,7 +13419,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13419,7 +13430,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13431,16 +13442,20 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>530</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>164</v>
+        <v>583</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13488,25 +13503,25 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>166</v>
+        <v>582</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>167</v>
+        <v>587</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
@@ -13520,18 +13535,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13543,17 +13558,15 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13602,19 +13615,19 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>167</v>
@@ -13634,11 +13647,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>536</v>
+        <v>148</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13651,26 +13664,24 @@
         <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>537</v>
+        <v>169</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>538</v>
+        <v>170</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N100" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
       </c>
@@ -13718,7 +13729,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13733,7 +13744,7 @@
         <v>137</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -13750,42 +13761,42 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>591</v>
+        <v>151</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>592</v>
+        <v>152</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -13810,13 +13821,13 @@
         <v>79</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>79</v>
@@ -13834,31 +13845,31 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>593</v>
+        <v>129</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -13866,7 +13877,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13874,7 +13885,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>86</v>
@@ -13889,19 +13900,19 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -13926,13 +13937,13 @@
         <v>79</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>79</v>
@@ -13950,10 +13961,10 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>86</v>
@@ -13965,16 +13976,16 @@
         <v>98</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -13982,18 +13993,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>79</v>
@@ -14005,18 +14016,20 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>606</v>
+        <v>235</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14064,13 +14077,13 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>79</v>
@@ -14079,16 +14092,16 @@
         <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>167</v>
+        <v>606</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14096,18 +14109,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>79</v>
@@ -14116,23 +14129,21 @@
         <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L104" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>616</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14180,13 +14191,13 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
@@ -14195,24 +14206,24 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>617</v>
+        <v>167</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14223,31 +14234,31 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>526</v>
+        <v>227</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14296,13 +14307,13 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -14311,10 +14322,10 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>167</v>
+        <v>621</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
@@ -14326,9 +14337,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14339,28 +14350,32 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>88</v>
+        <v>530</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>164</v>
+        <v>623</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14408,25 +14423,25 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>166</v>
+        <v>622</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
@@ -14440,18 +14455,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -14463,17 +14478,15 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14522,19 +14535,19 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>167</v>
@@ -14554,11 +14567,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>536</v>
+        <v>148</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14571,26 +14584,24 @@
         <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>537</v>
+        <v>169</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>538</v>
+        <v>170</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>79</v>
       </c>
@@ -14638,7 +14649,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14653,7 +14664,7 @@
         <v>137</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>79</v>
@@ -14670,41 +14681,43 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>628</v>
+        <v>131</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>629</v>
+        <v>541</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>630</v>
+        <v>542</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>79</v>
       </c>
@@ -14752,31 +14765,31 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>627</v>
+        <v>543</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>632</v>
+        <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -14784,7 +14797,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14807,15 +14820,17 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>106</v>
+        <v>632</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>79</v>
@@ -14840,13 +14855,13 @@
         <v>79</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>79</v>
@@ -14864,7 +14879,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>86</v>
@@ -14879,7 +14894,7 @@
         <v>98</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>637</v>
+        <v>159</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>167</v>
@@ -14888,14 +14903,126 @@
         <v>79</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="AN110" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN110">
+  <autoFilter ref="A1:AN111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14905,7 +15032,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI109">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,19 +461,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>deathDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Patient Death Date</t>
-  </si>
-  <si>
-    <t>The Patients death date and time as recorded in the Client Registry.  This also include death date history as required.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1238,6 +1225,10 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
     <t>Indicates if the individual is deceased or not</t>
   </si>
   <si>
@@ -1262,23 +1253,42 @@
     <t>Patient.deceased[x].extension</t>
   </si>
   <si>
-    <t>deathDateFlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-flag-extension}
+    <t>deathDateEffectiveDates</t>
+  </si>
+  <si>
+    <t>deathDateHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-date-history-extension}
 </t>
   </si>
   <si>
-    <t>The Patients death date and time as recorded in the Client Registry.</t>
+    <t>BC Death Date History</t>
+  </si>
+  <si>
+    <t>This extension allows the Client Registry to include historical death dates and flags in a single Patient resource.</t>
+  </si>
+  <si>
+    <t>verifiedDeathFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-death-verified-flag-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Death Verified Flag</t>
+  </si>
+  <si>
+    <t>The Patients death is verified and as recorded in the Client Registry as a flag.  This also includes death verified flag history as required.</t>
   </si>
   <si>
     <t>Patient.deceased[x].value</t>
   </si>
   <si>
-    <t>Primitive value for boolean</t>
-  </si>
-  <si>
-    <t>boolean.value</t>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -2324,7 +2334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3515,34 +3525,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -3550,8 +3558,12 @@
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3599,7 +3611,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3608,13 +3620,13 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3629,13 +3641,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3645,28 +3657,26 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3715,7 +3725,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3727,27 +3737,27 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3758,30 +3768,28 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3829,31 +3837,31 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3861,18 +3869,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3884,15 +3892,17 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3929,34 +3939,34 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3971,23 +3981,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3996,17 +4008,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -4043,19 +4053,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4070,7 +4080,7 @@
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4087,7 +4097,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>173</v>
@@ -4169,7 +4179,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4199,13 +4209,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4217,25 +4225,29 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4259,13 +4271,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4283,22 +4295,22 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4307,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4315,7 +4327,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4332,25 +4344,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4375,13 +4387,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4399,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4414,7 +4426,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4423,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4431,7 +4443,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4454,19 +4466,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4479,7 +4491,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4491,13 +4503,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4515,7 +4527,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4530,7 +4542,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4539,7 +4551,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4547,7 +4559,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4570,20 +4582,18 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4631,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4656,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4655,7 +4665,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4663,7 +4673,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4686,17 +4696,15 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4745,7 +4753,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4760,7 +4768,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4769,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4777,7 +4785,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4800,15 +4808,17 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4857,7 +4867,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4872,7 +4882,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4881,7 +4891,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4889,7 +4899,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4906,72 +4916,76 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4986,24 +5000,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5011,91 +5025,89 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5104,24 +5116,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5129,35 +5141,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5205,31 +5213,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5237,18 +5245,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5260,15 +5268,17 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5305,34 +5315,34 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5347,23 +5357,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5372,17 +5384,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5419,19 +5429,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5456,7 @@
         <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5461,43 +5471,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5521,13 +5533,11 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5545,22 +5555,22 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5569,7 +5579,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5577,7 +5587,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5585,7 +5595,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5594,25 +5604,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5637,11 +5647,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5659,7 +5671,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5686,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5683,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5691,11 +5703,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5717,17 +5729,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5800,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5799,7 +5809,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5807,18 +5817,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5833,13 +5843,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5889,13 +5899,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5914,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5913,7 +5923,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5921,11 +5931,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5947,14 +5957,12 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6003,7 +6011,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6018,7 +6026,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -6027,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6035,7 +6043,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6061,10 +6069,10 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6115,7 +6123,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6130,7 +6138,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6139,7 +6147,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6147,7 +6155,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6158,7 +6166,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6170,16 +6178,18 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6227,13 +6237,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6242,7 +6252,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6251,15 +6261,15 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6270,10 +6280,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6282,17 +6292,19 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6341,13 +6353,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6356,24 +6368,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6384,32 +6396,28 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6457,31 +6465,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6489,18 +6497,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6512,15 +6520,17 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6557,34 +6567,34 @@
         <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6599,23 +6609,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6624,17 +6636,15 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6671,19 +6681,19 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6708,7 @@
         <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6713,13 +6723,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6731,22 +6739,22 @@
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6773,13 +6781,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6797,22 +6803,22 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6821,7 +6827,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6829,7 +6835,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6852,16 +6858,20 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6885,11 +6895,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6907,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6916,13 +6928,13 @@
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6931,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6939,7 +6951,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6956,25 +6968,25 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6999,13 +7011,11 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7023,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7038,7 +7048,7 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7047,7 +7057,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7055,7 +7065,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7072,26 +7082,24 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7115,11 +7123,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7137,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7152,7 +7162,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7161,7 +7171,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>163</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7169,7 +7179,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7192,17 +7202,15 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
         <v>345</v>
       </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7266,7 +7274,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7275,13 +7283,13 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>347</v>
       </c>
@@ -7291,13 +7299,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7306,7 +7314,7 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>348</v>
@@ -7314,8 +7322,12 @@
       <c r="L44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7339,13 +7351,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7363,7 +7375,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7378,24 +7390,24 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>129</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7403,35 +7415,31 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7455,13 +7463,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7479,7 +7487,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>162</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7491,19 +7499,19 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7511,7 +7519,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7522,7 +7530,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7534,13 +7542,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7579,31 +7587,29 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7621,11 +7627,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7634,10 +7642,10 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7646,13 +7654,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7691,17 +7699,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7710,7 +7720,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7731,12 +7741,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7749,7 +7759,7 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7758,13 +7768,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7815,7 +7825,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7847,10 +7857,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7870,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7872,13 +7882,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7929,7 +7939,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7959,13 +7969,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B50" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7974,10 +7982,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7986,13 +7994,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8043,19 +8051,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>172</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8073,9 +8081,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8083,31 +8091,35 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8155,7 +8167,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8167,27 +8179,27 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8195,35 +8207,31 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>374</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8271,7 +8279,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>162</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8283,27 +8291,27 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8314,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8326,13 +8334,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8371,31 +8379,29 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8415,9 +8421,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8438,13 +8446,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8483,17 +8491,19 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8502,7 +8512,7 @@
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>137</v>
@@ -8523,12 +8533,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8541,7 +8551,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8550,13 +8560,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8607,7 +8617,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8639,10 +8649,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8652,7 +8662,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8664,13 +8674,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8721,7 +8731,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8751,13 +8761,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8766,10 +8774,10 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8778,13 +8786,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8835,19 +8843,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8865,7 +8873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>389</v>
       </c>
@@ -8881,25 +8889,29 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8947,7 +8959,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8959,27 +8971,27 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8993,29 +9005,25 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9063,7 +9071,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9075,19 +9083,19 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9095,7 +9103,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9106,7 +9114,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9118,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9163,31 +9171,29 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9205,11 +9211,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9218,10 +9226,10 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9230,13 +9238,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9275,17 +9283,19 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9294,7 +9304,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9317,10 +9327,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9342,13 +9352,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>403</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9399,7 +9409,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9431,10 +9441,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>173</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9444,7 +9454,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -9456,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9513,7 +9523,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9543,11 +9553,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9559,7 +9571,7 @@
         <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9568,13 +9580,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9625,19 +9637,19 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>407</v>
+        <v>168</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9655,7 +9667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>408</v>
       </c>
@@ -9668,32 +9680,28 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9741,39 +9749,39 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9784,28 +9792,32 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>412</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9853,31 +9865,31 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>166</v>
+        <v>411</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9885,18 +9897,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9908,17 +9920,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9955,34 +9965,34 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9997,25 +10007,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10024,15 +10032,17 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10069,19 +10079,19 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10096,7 +10106,7 @@
         <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10111,11 +10121,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10127,29 +10139,25 @@
         <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>420</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10161,7 +10169,7 @@
         <v>79</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>79</v>
@@ -10173,13 +10181,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10197,22 +10205,22 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>427</v>
+        <v>168</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10221,7 +10229,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10229,7 +10237,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10246,7 +10254,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
@@ -10255,15 +10263,17 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10287,13 +10297,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10326,7 +10336,7 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10345,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10343,7 +10353,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10366,20 +10376,18 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10391,7 +10399,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10403,13 +10411,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10427,7 +10435,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10450,7 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10451,7 +10459,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10459,7 +10467,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10470,7 +10478,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10485,13 +10493,17 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10503,7 +10515,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10539,13 +10551,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10554,7 +10566,7 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>450</v>
+        <v>265</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10563,7 +10575,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10571,18 +10583,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10597,10 +10609,10 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10615,7 +10627,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10651,13 +10663,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10666,7 +10678,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10687,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10683,11 +10695,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10709,14 +10721,12 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10729,7 +10739,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10765,7 +10775,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10780,7 +10790,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10789,7 +10799,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10797,11 +10807,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10823,12 +10833,14 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10841,7 +10853,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10877,7 +10889,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10892,7 +10904,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10901,7 +10913,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10909,11 +10921,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10935,10 +10947,10 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10953,7 +10965,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -10989,7 +11001,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11004,7 +11016,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11013,7 +11025,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11021,11 +11033,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11047,14 +11059,12 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11067,7 +11077,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11103,7 +11113,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11118,7 +11128,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11127,7 +11137,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11135,7 +11145,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11158,18 +11168,18 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11181,7 +11191,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11217,7 +11227,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11232,7 +11242,7 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>304</v>
+        <v>492</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11241,7 +11251,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11249,7 +11259,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11269,20 +11279,20 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11295,7 +11305,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11307,13 +11317,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11331,7 +11341,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11346,16 +11356,16 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>504</v>
+        <v>300</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11363,7 +11373,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11386,19 +11396,17 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>508</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11423,13 +11431,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11447,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11462,16 +11470,16 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11479,7 +11487,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11502,16 +11510,20 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>512</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11559,7 +11571,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>166</v>
+        <v>510</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11571,19 +11583,19 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>167</v>
+        <v>516</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11591,18 +11603,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11614,17 +11626,15 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11661,34 +11671,34 @@
         <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11703,25 +11713,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11730,15 +11738,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11775,19 +11785,19 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11802,7 +11812,7 @@
         <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11819,10 +11829,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>173</v>
+        <v>520</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -11844,13 +11854,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11901,7 +11911,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11933,10 +11943,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>366</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
@@ -11946,7 +11956,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -11958,13 +11968,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>518</v>
+        <v>170</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>519</v>
+        <v>171</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12015,7 +12025,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12045,11 +12055,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12061,7 +12073,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12070,20 +12082,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>526</v>
-      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12131,7 +12139,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>521</v>
+        <v>168</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12143,19 +12151,19 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12163,7 +12171,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12186,19 +12194,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12247,7 +12255,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12259,19 +12267,19 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12279,7 +12287,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12290,7 +12298,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12302,16 +12310,20 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>164</v>
+        <v>534</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12359,25 +12371,25 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>166</v>
+        <v>532</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>167</v>
+        <v>539</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
@@ -12391,18 +12403,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12414,17 +12426,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12473,22 +12483,22 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -12505,11 +12515,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>540</v>
+        <v>144</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12522,26 +12532,24 @@
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>541</v>
+        <v>165</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>542</v>
+        <v>166</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12589,7 +12597,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>543</v>
+        <v>168</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12604,7 +12612,7 @@
         <v>137</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -12621,11 +12629,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12638,23 +12646,25 @@
         <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M91" s="2"/>
+      <c r="M91" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N91" t="s" s="2">
-        <v>547</v>
+        <v>148</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12679,13 +12689,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12703,7 +12713,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12715,19 +12725,19 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>550</v>
+        <v>129</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12735,7 +12745,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12746,7 +12756,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12758,17 +12768,17 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12793,13 +12803,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12817,13 +12827,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12832,16 +12842,16 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>249</v>
+        <v>553</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12849,7 +12859,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12860,7 +12870,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12872,19 +12882,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12933,13 +12941,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12948,16 +12956,16 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12965,7 +12973,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12976,7 +12984,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -12988,17 +12996,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>409</v>
+        <v>303</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>565</v>
+        <v>307</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13047,13 +13057,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13062,16 +13072,16 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>414</v>
+        <v>308</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13079,7 +13089,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13102,17 +13112,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>106</v>
+        <v>412</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13137,13 +13147,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13161,7 +13171,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13176,16 +13186,16 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13193,7 +13203,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13216,17 +13226,17 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>572</v>
+        <v>348</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13251,13 +13261,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13275,7 +13285,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13284,22 +13294,22 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>576</v>
+        <v>354</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13307,7 +13317,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13330,16 +13340,18 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13387,7 +13399,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13396,22 +13408,22 @@
         <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13419,7 +13431,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13430,7 +13442,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13442,20 +13454,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>530</v>
+        <v>216</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L98" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>586</v>
-      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13503,13 +13511,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13518,10 +13526,10 @@
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>588</v>
+        <v>163</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
@@ -13535,7 +13543,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13546,7 +13554,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13558,16 +13566,20 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>164</v>
+        <v>586</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
       </c>
@@ -13615,25 +13627,25 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>166</v>
+        <v>585</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>167</v>
+        <v>590</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13647,18 +13659,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13670,17 +13682,15 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13729,22 +13739,22 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -13761,11 +13771,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>540</v>
+        <v>144</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13778,26 +13788,24 @@
         <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>541</v>
+        <v>165</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>542</v>
+        <v>166</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>79</v>
       </c>
@@ -13845,7 +13853,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>543</v>
+        <v>168</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13860,7 +13868,7 @@
         <v>137</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -13877,42 +13885,42 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>595</v>
+        <v>147</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>596</v>
+        <v>148</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -13937,13 +13945,13 @@
         <v>79</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>79</v>
@@ -13961,31 +13969,31 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>592</v>
+        <v>546</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>597</v>
+        <v>129</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -13993,7 +14001,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14001,7 +14009,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>86</v>
@@ -14016,19 +14024,19 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14053,13 +14061,13 @@
         <v>79</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14077,10 +14085,10 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -14092,16 +14100,16 @@
         <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14109,18 +14117,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>79</v>
@@ -14132,18 +14140,20 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>610</v>
+        <v>231</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14191,13 +14201,13 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
@@ -14206,16 +14216,16 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>167</v>
+        <v>609</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14223,18 +14233,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>79</v>
@@ -14243,23 +14253,21 @@
         <v>79</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>227</v>
+        <v>613</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14307,13 +14315,13 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -14322,24 +14330,24 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>621</v>
+        <v>163</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14350,31 +14358,31 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>530</v>
+        <v>223</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14423,13 +14431,13 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -14438,10 +14446,10 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>627</v>
+        <v>579</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>167</v>
+        <v>624</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
@@ -14453,9 +14461,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14466,28 +14474,32 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>164</v>
+        <v>626</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
       </c>
@@ -14535,25 +14547,25 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>166</v>
+        <v>625</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>167</v>
+        <v>630</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
@@ -14567,18 +14579,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>79</v>
@@ -14590,17 +14602,15 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -14649,22 +14659,22 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>79</v>
@@ -14681,11 +14691,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>540</v>
+        <v>144</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14698,26 +14708,24 @@
         <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>541</v>
+        <v>165</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>542</v>
+        <v>166</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>79</v>
       </c>
@@ -14765,7 +14773,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>543</v>
+        <v>168</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14780,7 +14788,7 @@
         <v>137</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
@@ -14797,41 +14805,43 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>632</v>
+        <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>79</v>
       </c>
@@ -14879,31 +14889,31 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>631</v>
+        <v>546</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -14911,7 +14921,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14934,15 +14944,17 @@
         <v>87</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>106</v>
+        <v>635</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L111" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -14967,13 +14979,13 @@
         <v>79</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>79</v>
@@ -14991,7 +15003,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>86</v>
@@ -15006,23 +15018,135 @@
         <v>98</v>
       </c>
       <c r="AJ111" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AK111" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN111" t="s" s="2">
+      <c r="L112" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN111">
+  <autoFilter ref="A1:AN112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15032,7 +15156,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -564,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier status</t>
+    <t>BC Identifier Status</t>
   </si>
   <si>
     <t>Identifier status.</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCPatient</t>
+    <t>ClientRegistryPatient</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2343,45 +2343,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.29296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.8515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1136,6 +1136,10 @@
   </si>
   <si>
     <t>genderEffectiveDates</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}invariant-sourceid-1:When using the bc-sourceid-extension one of sourceId or userId must be populated. {extension.count()=1 or extension.count()=2}</t>
   </si>
   <si>
     <t>history</t>
@@ -7837,7 +7841,7 @@
         <v>142</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>362</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7864,7 @@
         <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7882,13 +7886,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7971,7 +7975,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7997,10 +8001,10 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8051,7 +8055,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8083,7 +8087,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8106,19 +8110,19 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8167,7 +8171,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8182,24 +8186,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8311,7 +8315,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8421,10 +8425,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
@@ -8535,7 +8539,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>169</v>
@@ -8629,7 +8633,7 @@
         <v>142</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>137</v>
+        <v>362</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8649,10 +8653,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8674,13 +8678,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8763,7 +8767,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8786,13 +8790,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8843,7 +8847,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8875,7 +8879,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8898,19 +8902,19 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8959,7 +8963,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8974,7 +8978,7 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>163</v>
@@ -8983,7 +8987,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8991,7 +8995,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9103,7 +9107,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9213,10 +9217,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
@@ -9327,7 +9331,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>169</v>
@@ -9421,7 +9425,7 @@
         <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>362</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9441,10 +9445,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9466,13 +9470,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9555,10 +9559,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
@@ -9580,13 +9584,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9669,7 +9673,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9692,13 +9696,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9749,7 +9753,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9804,19 +9808,19 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9865,7 +9869,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9880,16 +9884,16 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9897,7 +9901,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10009,7 +10013,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10123,7 +10127,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>169</v>
@@ -10237,7 +10241,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10263,16 +10267,16 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10285,7 +10289,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10300,10 +10304,10 @@
         <v>182</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10321,7 +10325,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10345,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10353,7 +10357,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10379,13 +10383,13 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10399,7 +10403,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10414,10 +10418,10 @@
         <v>182</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10435,7 +10439,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10463,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10467,7 +10471,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10493,13 +10497,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>263</v>
@@ -10515,7 +10519,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10551,7 +10555,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10575,7 +10579,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10583,7 +10587,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10609,10 +10613,10 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10627,7 +10631,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10663,7 +10667,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10678,7 +10682,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10687,7 +10691,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10695,11 +10699,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10721,10 +10725,10 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10739,7 +10743,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10775,7 +10779,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10790,7 +10794,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10803,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10807,11 +10811,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10833,13 +10837,13 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10853,7 +10857,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10889,7 +10893,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10904,7 +10908,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10913,7 +10917,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10921,11 +10925,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10947,10 +10951,10 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11001,7 +11005,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11025,7 +11029,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11033,11 +11037,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11059,10 +11063,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11077,7 +11081,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11113,7 +11117,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11128,7 +11132,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11137,7 +11141,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11149,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11171,13 +11175,13 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11227,7 +11231,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11242,7 +11246,7 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11251,7 +11255,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11259,7 +11263,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11285,14 +11289,14 @@
         <v>216</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11305,7 +11309,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11341,7 +11345,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11365,7 +11369,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11373,7 +11377,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11399,14 +11403,14 @@
         <v>188</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11434,10 +11438,10 @@
         <v>193</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11455,7 +11459,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11470,16 +11474,16 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11487,7 +11491,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11510,19 +11514,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11571,7 +11575,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11586,7 +11590,7 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>163</v>
@@ -11595,7 +11599,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11603,7 +11607,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11715,7 +11719,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11829,10 +11833,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -11943,7 +11947,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>169</v>
@@ -12057,10 +12061,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12082,13 +12086,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12171,7 +12175,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12194,19 +12198,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12255,7 +12259,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12274,7 @@
         <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>163</v>
@@ -12279,7 +12283,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12287,7 +12291,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12310,19 +12314,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12371,7 +12375,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12383,10 +12387,10 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>163</v>
@@ -12403,7 +12407,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12515,7 +12519,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12629,11 +12633,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12655,10 +12659,10 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>147</v>
@@ -12713,7 +12717,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12745,7 +12749,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12771,14 +12775,14 @@
         <v>188</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12806,10 +12810,10 @@
         <v>193</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12831,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12842,7 +12846,7 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>163</v>
@@ -12851,7 +12855,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12859,7 +12863,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12885,14 +12889,14 @@
         <v>240</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12941,7 +12945,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12965,7 +12969,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12973,7 +12977,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12999,13 +13003,13 @@
         <v>303</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>307</v>
@@ -13057,7 +13061,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13081,7 +13085,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13089,7 +13093,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13112,17 +13116,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13171,7 +13175,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13186,7 +13190,7 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>163</v>
@@ -13195,7 +13199,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13203,7 +13207,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13232,11 +13236,11 @@
         <v>348</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13285,7 +13289,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13309,7 +13313,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13317,7 +13321,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13343,14 +13347,14 @@
         <v>223</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13399,7 +13403,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13408,13 +13412,13 @@
         <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>163</v>
@@ -13423,7 +13427,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13431,7 +13435,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13457,10 +13461,10 @@
         <v>216</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13511,7 +13515,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13526,7 +13530,7 @@
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>163</v>
@@ -13543,7 +13547,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13566,19 +13570,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13627,7 +13631,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13642,10 +13646,10 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13659,7 +13663,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13771,7 +13775,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13885,11 +13889,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13911,10 +13915,10 @@
         <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>147</v>
@@ -13969,7 +13973,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14001,7 +14005,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14027,16 +14031,16 @@
         <v>188</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14085,7 +14089,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>86</v>
@@ -14100,16 +14104,16 @@
         <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14117,7 +14121,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14143,16 +14147,16 @@
         <v>231</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14201,7 +14205,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14216,16 +14220,16 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14233,11 +14237,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14256,16 +14260,16 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14315,7 +14319,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14330,7 +14334,7 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>163</v>
@@ -14339,7 +14343,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14347,7 +14351,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14373,16 +14377,16 @@
         <v>223</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14431,7 +14435,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14446,10 +14450,10 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
@@ -14463,7 +14467,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14486,19 +14490,19 @@
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14547,7 +14551,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14562,7 +14566,7 @@
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>163</v>
@@ -14579,7 +14583,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14691,7 +14695,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14805,11 +14809,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14831,10 +14835,10 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>147</v>
@@ -14889,7 +14893,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14921,7 +14925,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14944,16 +14948,16 @@
         <v>87</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15003,7 +15007,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>86</v>
@@ -15027,7 +15031,7 @@
         <v>79</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15035,7 +15039,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15061,10 +15065,10 @@
         <v>106</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15094,10 +15098,10 @@
         <v>182</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>79</v>
@@ -15115,7 +15119,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>86</v>
@@ -15130,7 +15134,7 @@
         <v>98</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>163</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1136,10 +1136,6 @@
   </si>
   <si>
     <t>genderEffectiveDates</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}invariant-sourceid-1:When using the bc-sourceid-extension one of sourceId or userId must be populated. {extension.count()=1 or extension.count()=2}</t>
   </si>
   <si>
     <t>history</t>
@@ -7841,7 +7837,7 @@
         <v>142</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7864,7 +7860,7 @@
         <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7886,13 +7882,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7975,7 +7971,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8001,10 +7997,10 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8055,7 +8051,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8087,7 +8083,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8110,19 +8106,19 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8171,7 +8167,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8186,24 +8182,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8315,7 +8311,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8425,10 +8421,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
@@ -8539,7 +8535,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>169</v>
@@ -8633,7 +8629,7 @@
         <v>142</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8653,10 +8649,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8678,13 +8674,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8767,7 +8763,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8790,13 +8786,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8847,7 +8843,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8879,7 +8875,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8902,19 +8898,19 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8963,7 +8959,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8978,7 +8974,7 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>163</v>
@@ -8987,7 +8983,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8995,7 +8991,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9107,7 +9103,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9217,10 +9213,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
@@ -9331,7 +9327,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>169</v>
@@ -9425,7 +9421,7 @@
         <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9445,10 +9441,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9470,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9559,10 +9555,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
@@ -9584,13 +9580,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9673,7 +9669,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9696,13 +9692,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9753,7 +9749,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9785,7 +9781,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9808,19 +9804,19 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9869,7 +9865,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9884,16 +9880,16 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9901,7 +9897,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10013,7 +10009,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10127,7 +10123,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>169</v>
@@ -10241,7 +10237,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10267,16 +10263,16 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10289,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10304,28 +10300,28 @@
         <v>182</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10349,7 +10345,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10357,7 +10353,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10383,13 +10379,13 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10403,7 +10399,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10418,28 +10414,28 @@
         <v>182</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10463,7 +10459,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10471,7 +10467,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10497,13 +10493,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>263</v>
@@ -10519,43 +10515,43 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10579,7 +10575,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10587,7 +10583,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10613,10 +10609,10 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10631,43 +10627,43 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10682,16 +10678,16 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10699,11 +10695,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10725,10 +10721,10 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10743,43 +10739,43 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10794,16 +10790,16 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10811,11 +10807,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10837,13 +10833,13 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10857,43 +10853,43 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10908,16 +10904,16 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10925,11 +10921,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10951,10 +10947,10 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11005,7 +11001,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11020,16 +11016,16 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11037,11 +11033,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11063,10 +11059,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11081,43 +11077,43 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11132,16 +11128,16 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11149,7 +11145,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11175,13 +11171,13 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11231,7 +11227,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11246,16 +11242,16 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11263,7 +11259,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11289,14 +11285,14 @@
         <v>216</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11309,43 +11305,43 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11369,7 +11365,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11377,7 +11373,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11403,14 +11399,14 @@
         <v>188</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11438,11 +11434,11 @@
         <v>193</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11459,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11474,16 +11470,16 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11491,7 +11487,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11514,19 +11510,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11575,7 +11571,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11590,7 +11586,7 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>163</v>
@@ -11599,7 +11595,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11607,7 +11603,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11719,7 +11715,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11833,10 +11829,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -11947,7 +11943,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>169</v>
@@ -12061,10 +12057,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12086,13 +12082,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12175,7 +12171,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12198,19 +12194,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12259,7 +12255,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12270,7 @@
         <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>163</v>
@@ -12283,7 +12279,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12291,7 +12287,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12314,19 +12310,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12375,7 +12371,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12387,10 +12383,10 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>163</v>
@@ -12407,7 +12403,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12519,7 +12515,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12633,11 +12629,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12659,10 +12655,10 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>147</v>
@@ -12717,7 +12713,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12749,7 +12745,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12775,14 +12771,14 @@
         <v>188</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12810,11 +12806,11 @@
         <v>193</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12831,7 +12827,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12846,7 +12842,7 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>163</v>
@@ -12855,7 +12851,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12863,7 +12859,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12889,14 +12885,14 @@
         <v>240</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12945,7 +12941,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12969,7 +12965,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12977,7 +12973,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13003,13 +12999,13 @@
         <v>303</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>307</v>
@@ -13061,7 +13057,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13085,7 +13081,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13093,7 +13089,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13116,17 +13112,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13175,7 +13171,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13190,7 +13186,7 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>163</v>
@@ -13199,7 +13195,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13207,7 +13203,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13236,11 +13232,11 @@
         <v>348</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13289,7 +13285,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13313,7 +13309,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13321,7 +13317,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13347,14 +13343,14 @@
         <v>223</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13403,7 +13399,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13412,13 +13408,13 @@
         <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>163</v>
@@ -13427,7 +13423,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13435,7 +13431,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13461,10 +13457,10 @@
         <v>216</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13515,7 +13511,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13530,7 +13526,7 @@
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>163</v>
@@ -13547,7 +13543,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13570,19 +13566,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13631,7 +13627,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13646,10 +13642,10 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13663,7 +13659,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13775,7 +13771,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13889,11 +13885,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13915,10 +13911,10 @@
         <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>147</v>
@@ -13973,7 +13969,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14005,7 +14001,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14031,16 +14027,16 @@
         <v>188</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14089,7 +14085,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>86</v>
@@ -14104,16 +14100,16 @@
         <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AK103" t="s" s="2">
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14121,7 +14117,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14147,16 +14143,16 @@
         <v>231</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14205,7 +14201,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14220,16 +14216,16 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AK104" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AK104" t="s" s="2">
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14237,11 +14233,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14260,16 +14256,16 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14319,7 +14315,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14334,7 +14330,7 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>163</v>
@@ -14343,7 +14339,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14351,7 +14347,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14377,16 +14373,16 @@
         <v>223</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14435,7 +14431,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14450,10 +14446,10 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
@@ -14467,7 +14463,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14490,19 +14486,19 @@
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14551,7 +14547,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14566,7 +14562,7 @@
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>163</v>
@@ -14583,7 +14579,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14695,7 +14691,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14809,11 +14805,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14835,10 +14831,10 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>147</v>
@@ -14893,7 +14889,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14925,7 +14921,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14948,16 +14944,16 @@
         <v>87</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15007,7 +15003,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>86</v>
@@ -15031,7 +15027,7 @@
         <v>79</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15039,7 +15035,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15065,10 +15061,10 @@
         <v>106</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15098,11 +15094,11 @@
         <v>182</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y112" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y112" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>86</v>
@@ -15134,7 +15130,7 @@
         <v>98</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>163</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1149,6 +1149,19 @@
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical gender codes in a single Patient resource.</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-genderIdentity}
+</t>
+  </si>
+  <si>
+    <t>The patient's gender identity</t>
+  </si>
+  <si>
+    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
     <t>Patient.gender.value</t>
@@ -2334,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7969,11 +7982,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7985,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7994,13 +8009,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8051,19 +8066,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8081,9 +8096,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8091,35 +8106,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8167,7 +8178,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8179,27 +8190,27 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8207,31 +8218,35 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8279,7 +8294,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8291,27 +8306,27 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8322,7 +8337,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8334,13 +8349,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8379,29 +8394,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8421,11 +8438,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8434,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8446,13 +8461,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8491,16 +8506,14 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>168</v>
@@ -8512,7 +8525,7 @@
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>137</v>
@@ -8533,12 +8546,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8564,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8560,13 +8573,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8649,10 +8662,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8662,7 +8675,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8674,13 +8687,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>171</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8761,11 +8774,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8774,10 +8789,10 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8786,13 +8801,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8843,19 +8858,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>168</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8873,7 +8888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>389</v>
       </c>
@@ -8889,29 +8904,25 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8959,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8971,27 +8982,27 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9005,25 +9016,29 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9083,19 +9098,19 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9103,7 +9118,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9114,7 +9129,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9126,13 +9141,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9171,29 +9186,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9211,13 +9228,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9226,10 +9241,10 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9238,13 +9253,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9283,16 +9298,14 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>168</v>
@@ -9304,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9327,10 +9340,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9352,13 +9365,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9441,10 +9454,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9454,7 +9467,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -9466,13 +9479,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>401</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>172</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9555,7 +9568,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>404</v>
@@ -9568,7 +9581,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -9667,11 +9680,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9683,7 +9698,7 @@
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9692,13 +9707,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9749,19 +9764,19 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>168</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9779,9 +9794,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9792,32 +9807,28 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>413</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9865,39 +9876,39 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9908,28 +9919,32 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>160</v>
+        <v>417</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9977,31 +9992,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>162</v>
+        <v>415</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>163</v>
+        <v>421</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10009,18 +10024,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10032,17 +10047,15 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10079,31 +10092,31 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>163</v>
@@ -10121,25 +10134,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10148,15 +10159,17 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10193,16 +10206,16 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>168</v>
@@ -10220,7 +10233,7 @@
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10235,11 +10248,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10251,29 +10266,25 @@
         <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10285,7 +10296,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10297,13 +10308,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10321,22 +10332,22 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>430</v>
+        <v>168</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10345,7 +10356,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10353,7 +10364,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10370,7 +10381,7 @@
         <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>87</v>
@@ -10379,15 +10390,17 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10399,7 +10412,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10414,10 +10427,10 @@
         <v>182</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10435,7 +10448,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10467,7 +10480,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10490,20 +10503,18 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10515,7 +10526,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10527,13 +10538,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10551,7 +10562,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10566,7 +10577,7 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10575,7 +10586,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10583,7 +10594,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10594,7 +10605,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10609,13 +10620,17 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10627,7 +10642,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10663,13 +10678,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10678,7 +10693,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>453</v>
+        <v>265</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10687,7 +10702,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10695,18 +10710,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10721,10 +10736,10 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10739,7 +10754,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10775,13 +10790,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10790,7 +10805,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10814,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10807,11 +10822,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10833,14 +10848,12 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10853,7 +10866,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10889,7 +10902,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10904,7 +10917,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10913,7 +10926,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10921,11 +10934,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10947,12 +10960,14 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10980,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11001,7 +11016,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11031,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11025,7 +11040,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11033,11 +11048,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11059,10 +11074,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11077,7 +11092,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11113,7 +11128,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11128,7 +11143,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11137,7 +11152,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11145,11 +11160,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11171,14 +11186,12 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11191,7 +11204,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11227,7 +11240,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11242,7 +11255,7 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11251,7 +11264,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11259,7 +11272,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11282,18 +11295,18 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11305,7 +11318,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11341,7 +11354,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11369,7 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>300</v>
+        <v>496</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11365,7 +11378,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11373,7 +11386,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11393,20 +11406,20 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11419,7 +11432,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11431,13 +11444,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11455,7 +11468,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11470,16 +11483,16 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11487,7 +11500,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11510,19 +11523,17 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>511</v>
+        <v>188</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11547,13 +11558,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11571,7 +11582,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11586,16 +11597,16 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11603,7 +11614,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11626,16 +11637,20 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>515</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11683,7 +11698,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>162</v>
+        <v>514</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11695,19 +11710,19 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11715,18 +11730,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11738,17 +11753,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11785,31 +11798,31 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>163</v>
@@ -11827,25 +11840,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11854,15 +11865,17 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11899,16 +11912,16 @@
         <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>168</v>
@@ -11926,7 +11939,7 @@
         <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -11943,10 +11956,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>169</v>
+        <v>524</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
@@ -11968,13 +11981,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12057,10 +12070,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12070,7 +12083,7 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
@@ -12082,13 +12095,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>522</v>
+        <v>171</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>523</v>
+        <v>172</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12169,11 +12182,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12185,7 +12200,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12202,12 +12217,8 @@
       <c r="L87" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>529</v>
-      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12255,7 +12266,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>524</v>
+        <v>168</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12267,19 +12278,19 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12287,7 +12298,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12310,19 +12321,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12371,7 +12382,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12383,10 +12394,10 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>538</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>163</v>
@@ -12395,7 +12406,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12403,7 +12414,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12414,7 +12425,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12426,16 +12437,20 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>537</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>160</v>
+        <v>538</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12483,25 +12498,25 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>162</v>
+        <v>536</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>79</v>
@@ -12515,18 +12530,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12538,17 +12553,15 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12597,19 +12610,19 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>163</v>
@@ -12629,11 +12642,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>543</v>
+        <v>144</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12646,26 +12659,24 @@
         <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>544</v>
+        <v>165</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>545</v>
+        <v>166</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12713,7 +12724,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12728,7 +12739,7 @@
         <v>137</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -12745,11 +12756,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12762,13 +12773,13 @@
         <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>548</v>
@@ -12776,9 +12787,11 @@
       <c r="L92" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M92" s="2"/>
+      <c r="M92" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N92" t="s" s="2">
-        <v>550</v>
+        <v>148</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12803,13 +12816,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12840,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12839,19 +12852,19 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>553</v>
+        <v>129</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12859,7 +12872,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12870,7 +12883,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12882,17 +12895,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12917,13 +12930,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12941,13 +12954,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12956,7 +12969,7 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>245</v>
+        <v>557</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>163</v>
@@ -12965,7 +12978,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12973,7 +12986,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12984,7 +12997,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -12996,19 +13009,17 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13057,13 +13068,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13072,7 +13083,7 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>163</v>
@@ -13081,7 +13092,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13089,7 +13100,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13100,7 +13111,7 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13112,17 +13123,19 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>412</v>
+        <v>303</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13171,13 +13184,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13186,7 +13199,7 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>417</v>
+        <v>308</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>163</v>
@@ -13195,7 +13208,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13203,7 +13216,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13226,10 +13239,10 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>348</v>
+        <v>570</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>571</v>
@@ -13261,13 +13274,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13285,7 +13298,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13300,7 +13313,7 @@
         <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>163</v>
@@ -13340,17 +13353,17 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13375,13 +13388,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13408,13 +13421,13 @@
         <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>579</v>
+        <v>354</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>163</v>
@@ -13423,7 +13436,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13431,7 +13444,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13454,16 +13467,18 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13511,7 +13526,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13520,13 +13535,13 @@
         <v>86</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>163</v>
@@ -13535,7 +13550,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13554,7 +13569,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13566,7 +13581,7 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>533</v>
+        <v>216</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>586</v>
@@ -13574,12 +13589,8 @@
       <c r="L99" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>589</v>
-      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>79</v>
       </c>
@@ -13633,7 +13644,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13642,10 +13653,10 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>591</v>
+        <v>163</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13659,7 +13670,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13670,7 +13681,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13682,16 +13693,20 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>88</v>
+        <v>537</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
       </c>
@@ -13739,25 +13754,25 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>162</v>
+        <v>589</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>163</v>
+        <v>594</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
@@ -13771,18 +13786,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>79</v>
@@ -13794,17 +13809,15 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -13853,19 +13866,19 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>163</v>
@@ -13885,11 +13898,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>543</v>
+        <v>144</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13902,26 +13915,24 @@
         <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>544</v>
+        <v>165</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>545</v>
+        <v>166</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
       </c>
@@ -13969,7 +13980,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13984,7 +13995,7 @@
         <v>137</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -14001,42 +14012,42 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>597</v>
+        <v>549</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>598</v>
+        <v>147</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>599</v>
+        <v>148</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14061,13 +14072,13 @@
         <v>79</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14085,31 +14096,31 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>600</v>
+        <v>129</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14117,7 +14128,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14125,7 +14136,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>86</v>
@@ -14140,19 +14151,19 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14177,13 +14188,13 @@
         <v>79</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>79</v>
@@ -14201,10 +14212,10 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>86</v>
@@ -14216,16 +14227,16 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14233,18 +14244,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>79</v>
@@ -14256,18 +14267,20 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>613</v>
+        <v>231</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14315,13 +14328,13 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -14330,16 +14343,16 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>163</v>
+        <v>613</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14347,18 +14360,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>79</v>
@@ -14367,23 +14380,21 @@
         <v>79</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>223</v>
+        <v>617</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>623</v>
-      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14431,13 +14442,13 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -14446,24 +14457,24 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>624</v>
+        <v>163</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14474,31 +14485,31 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>533</v>
+        <v>223</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14547,13 +14558,13 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -14562,10 +14573,10 @@
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>163</v>
+        <v>628</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
@@ -14577,9 +14588,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14590,28 +14601,32 @@
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>537</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
       </c>
@@ -14659,25 +14674,25 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>162</v>
+        <v>629</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -14691,18 +14706,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>79</v>
@@ -14714,17 +14729,15 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>79</v>
@@ -14773,19 +14786,19 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>163</v>
@@ -14805,11 +14818,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>543</v>
+        <v>144</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14822,26 +14835,24 @@
         <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>544</v>
+        <v>165</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>545</v>
+        <v>166</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>79</v>
       </c>
@@ -14889,7 +14900,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14904,7 +14915,7 @@
         <v>137</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -14921,41 +14932,43 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>635</v>
+        <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>637</v>
+        <v>549</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
       </c>
@@ -15003,31 +15016,31 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15035,7 +15048,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15058,15 +15071,17 @@
         <v>87</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>106</v>
+        <v>639</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>79</v>
@@ -15091,13 +15106,13 @@
         <v>79</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>79</v>
@@ -15115,7 +15130,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>86</v>
@@ -15130,7 +15145,7 @@
         <v>98</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>644</v>
+        <v>155</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>163</v>
@@ -15139,14 +15154,126 @@
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN112">
+  <autoFilter ref="A1:AN113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15156,7 +15283,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,6 +461,19 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-identity-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Gender Identity with business dates.</t>
+  </si>
+  <si>
+    <t>Gender Identity with business dates.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1149,19 +1162,6 @@
   </si>
   <si>
     <t>This extension allows the Client Registry to include historical gender codes in a single Patient resource.</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
-</t>
-  </si>
-  <si>
-    <t>The patient's gender identity</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
     <t>Patient.gender.value</t>
@@ -3538,32 +3538,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -3571,12 +3573,8 @@
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3624,7 +3622,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3633,13 +3631,13 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3654,13 +3652,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3670,26 +3668,28 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3738,7 +3738,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3750,27 +3750,27 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3781,28 +3781,30 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3850,31 +3852,31 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3882,18 +3884,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3905,17 +3907,15 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3952,67 +3952,65 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -4021,15 +4019,17 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -4066,19 +4066,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4093,7 +4093,7 @@
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>173</v>
@@ -4192,7 +4192,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4222,11 +4222,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4238,29 +4240,25 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4284,13 +4282,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4308,22 +4306,22 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4332,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4340,7 +4338,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4357,25 +4355,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4400,13 +4398,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4424,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4437,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4448,7 +4446,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4456,7 +4454,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4479,19 +4477,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4504,7 +4502,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4516,13 +4514,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4540,7 +4538,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4553,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4564,7 +4562,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4572,7 +4570,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4595,18 +4593,20 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4654,7 +4654,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4669,7 +4669,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4678,7 +4678,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4709,15 +4709,17 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4730,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4766,7 +4768,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4781,7 +4783,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4790,7 +4792,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4798,7 +4800,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4821,17 +4823,15 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4880,7 +4880,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4895,7 +4895,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4904,7 +4904,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4929,76 +4929,72 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5013,24 +5009,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5038,39 +5034,41 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5114,13 +5112,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5129,24 +5127,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5154,31 +5152,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5226,31 +5228,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5258,18 +5260,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5281,17 +5283,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5328,35 +5328,35 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5370,25 +5370,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5397,15 +5395,17 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5442,19 +5442,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5469,7 +5469,7 @@
         <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5484,11 +5484,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5500,29 +5502,25 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5546,11 +5544,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5568,22 +5568,22 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5592,7 +5592,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5617,25 +5617,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5660,13 +5660,11 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5684,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5699,7 +5697,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5706,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5716,11 +5714,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5742,15 +5740,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5813,7 +5813,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5830,18 +5830,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5856,13 +5856,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5912,13 +5912,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5927,7 +5927,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5936,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5944,11 +5944,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5970,12 +5970,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6024,7 +6026,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6039,7 +6041,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -6048,7 +6050,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6056,7 +6058,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6082,10 +6084,10 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6136,7 +6138,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6151,7 +6153,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6160,7 +6162,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6168,7 +6170,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6179,7 +6181,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6191,18 +6193,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6250,13 +6250,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6265,7 +6265,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6274,15 +6274,15 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6293,10 +6293,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6305,19 +6305,17 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6366,13 +6364,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6381,24 +6379,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6409,28 +6407,32 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6478,31 +6480,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6510,18 +6512,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6533,17 +6535,15 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6580,35 +6580,35 @@
         <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6622,25 +6622,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6649,15 +6647,17 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6694,19 +6694,19 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6721,7 +6721,7 @@
         <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6736,11 +6736,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6752,22 +6754,22 @@
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6794,11 +6796,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6816,22 +6820,22 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6840,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6848,7 +6852,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6871,20 +6875,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6908,13 +6908,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6932,7 +6930,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6941,13 +6939,13 @@
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6956,7 +6954,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6964,7 +6962,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6981,25 +6979,25 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7024,11 +7022,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7046,7 +7046,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7061,7 +7061,7 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7070,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7095,24 +7095,26 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7136,13 +7138,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7160,7 +7160,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7175,7 +7175,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7184,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>163</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7215,15 +7215,17 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7287,7 +7289,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7296,13 +7298,13 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>347</v>
       </c>
@@ -7312,13 +7314,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7327,7 +7329,7 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>348</v>
@@ -7335,12 +7337,8 @@
       <c r="L44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7364,13 +7362,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7388,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7403,24 +7401,24 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7428,31 +7426,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7476,13 +7478,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7500,7 +7502,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7512,19 +7514,19 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7532,7 +7534,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7543,7 +7545,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7555,13 +7557,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7600,29 +7602,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7640,13 +7644,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7655,10 +7657,10 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7667,13 +7669,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7712,19 +7714,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7733,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7781,13 +7781,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7838,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7883,7 +7883,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7895,13 +7895,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7952,7 +7952,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>366</v>
@@ -7997,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
@@ -8066,7 +8066,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8352,10 +8352,10 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8406,7 +8406,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8516,7 +8516,7 @@
         <v>135</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8630,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8665,7 +8665,7 @@
         <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8687,13 +8687,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8744,7 +8744,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8779,7 +8779,7 @@
         <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>79</v>
@@ -8858,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9104,7 +9104,7 @@
         <v>399</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -9144,10 +9144,10 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9198,7 +9198,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9308,7 +9308,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9422,7 +9422,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9457,7 +9457,7 @@
         <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9479,13 +9479,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9536,7 +9536,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9650,7 +9650,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9764,7 +9764,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10050,10 +10050,10 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10104,7 +10104,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10119,7 +10119,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10162,13 +10162,13 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10209,7 +10209,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
@@ -10218,7 +10218,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10233,7 +10233,7 @@
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10253,7 +10253,7 @@
         <v>425</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>79</v>
@@ -10275,13 +10275,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10332,7 +10332,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10424,7 +10424,7 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>432</v>
@@ -10463,7 +10463,7 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10538,7 +10538,7 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>441</v>
@@ -10577,7 +10577,7 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10629,7 +10629,7 @@
         <v>448</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10693,7 +10693,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -11409,7 +11409,7 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>499</v>
@@ -11483,7 +11483,7 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11523,7 +11523,7 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>506</v>
@@ -11558,7 +11558,7 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>509</v>
@@ -11716,7 +11716,7 @@
         <v>520</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
@@ -11756,10 +11756,10 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11810,7 +11810,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11825,7 +11825,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11868,13 +11868,13 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11915,7 +11915,7 @@
         <v>134</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
@@ -11924,7 +11924,7 @@
         <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11939,7 +11939,7 @@
         <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12038,7 +12038,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12073,7 +12073,7 @@
         <v>523</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12095,13 +12095,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12152,7 +12152,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12187,7 +12187,7 @@
         <v>523</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>79</v>
@@ -12266,7 +12266,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12400,7 +12400,7 @@
         <v>534</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
@@ -12516,7 +12516,7 @@
         <v>543</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>79</v>
@@ -12556,10 +12556,10 @@
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12610,7 +12610,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12625,7 +12625,7 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12668,13 +12668,13 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12724,7 +12724,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12739,7 +12739,7 @@
         <v>137</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -12788,10 +12788,10 @@
         <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12895,7 +12895,7 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>552</v>
@@ -12930,7 +12930,7 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>555</v>
@@ -12972,7 +12972,7 @@
         <v>557</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
@@ -13009,7 +13009,7 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>560</v>
@@ -13083,10 +13083,10 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
@@ -13123,7 +13123,7 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>565</v>
@@ -13135,7 +13135,7 @@
         <v>567</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13199,10 +13199,10 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
@@ -13316,7 +13316,7 @@
         <v>421</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>79</v>
@@ -13356,7 +13356,7 @@
         <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>575</v>
@@ -13388,13 +13388,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13427,10 +13427,10 @@
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
@@ -13467,7 +13467,7 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>579</v>
@@ -13544,7 +13544,7 @@
         <v>583</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
@@ -13581,7 +13581,7 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>586</v>
@@ -13656,7 +13656,7 @@
         <v>588</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13812,10 +13812,10 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13866,7 +13866,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13881,7 +13881,7 @@
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13924,13 +13924,13 @@
         <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13980,7 +13980,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13995,7 +13995,7 @@
         <v>137</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -14044,10 +14044,10 @@
         <v>549</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14151,7 +14151,7 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>600</v>
@@ -14267,7 +14267,7 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>608</v>
@@ -14460,7 +14460,7 @@
         <v>621</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
@@ -14497,7 +14497,7 @@
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>624</v>
@@ -14692,7 +14692,7 @@
         <v>634</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -14732,10 +14732,10 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14786,7 +14786,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14801,7 +14801,7 @@
         <v>79</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
@@ -14822,7 +14822,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14844,13 +14844,13 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -14900,7 +14900,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14915,7 +14915,7 @@
         <v>137</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -14964,10 +14964,10 @@
         <v>549</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15145,10 +15145,10 @@
         <v>98</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>79</v>
@@ -15218,7 +15218,7 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>646</v>
@@ -15260,7 +15260,7 @@
         <v>648</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,250 +284,254 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>effectiveDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Business Dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-identity-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Gender Identity with business dates.</t>
+  </si>
+  <si>
+    <t>Gender Identity with business dates.</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>effectiveDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Business Dates</t>
-  </si>
-  <si>
-    <t>The effective dates for the parent element.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-identity-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Gender Identity with business dates.</t>
-  </si>
-  <si>
-    <t>Gender Identity with business dates.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3907,13 +3911,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3964,7 +3968,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3979,7 +3983,7 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3996,7 +4000,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4022,10 +4026,10 @@
         <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>151</v>
@@ -4069,7 +4073,7 @@
         <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
@@ -4078,7 +4082,7 @@
         <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4093,7 +4097,7 @@
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4110,10 +4114,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4135,13 +4139,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4192,7 +4196,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4224,10 +4228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4249,13 +4253,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4306,7 +4310,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4338,7 +4342,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4364,16 +4368,16 @@
         <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4398,13 +4402,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4422,7 +4426,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4437,7 +4441,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4454,7 +4458,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4477,19 +4481,19 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4514,13 +4518,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4538,7 +4542,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4553,7 +4557,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4562,7 +4566,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4570,7 +4574,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4596,16 +4600,16 @@
         <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4618,7 +4622,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4654,7 +4658,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4669,7 +4673,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4678,7 +4682,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4686,7 +4690,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4709,16 +4713,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4732,7 +4736,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4768,7 +4772,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4783,7 +4787,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4792,7 +4796,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4800,7 +4804,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4823,13 +4827,13 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4880,7 +4884,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4895,7 +4899,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4904,7 +4908,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4935,16 +4939,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4994,7 +4998,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5009,7 +5013,7 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -5018,7 +5022,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5026,7 +5030,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5049,70 +5053,70 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5127,13 +5131,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5144,7 +5148,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5167,19 +5171,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5228,7 +5232,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5243,16 +5247,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5260,7 +5264,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5283,13 +5287,13 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5340,7 +5344,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5355,7 +5359,7 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5372,7 +5376,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5398,10 +5402,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>151</v>
@@ -5445,7 +5449,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
@@ -5454,7 +5458,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5469,7 +5473,7 @@
         <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5486,10 +5490,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
@@ -5511,13 +5515,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5568,7 +5572,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5600,7 +5604,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5626,16 +5630,16 @@
         <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5660,11 +5664,11 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5682,7 +5686,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5697,7 +5701,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5706,7 +5710,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5714,7 +5718,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5737,19 +5741,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5798,7 +5802,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5813,7 +5817,7 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5826,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5830,11 +5834,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5853,16 +5857,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5912,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5931,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5940,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5944,11 +5948,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5967,16 +5971,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6026,7 +6030,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6045,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -6050,7 +6054,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6058,7 +6062,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6081,13 +6085,13 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6138,7 +6142,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6153,7 +6157,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6162,7 +6166,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6170,7 +6174,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6193,13 +6197,13 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6250,7 +6254,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6265,7 +6269,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6274,7 +6278,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6286,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6305,17 +6309,17 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6364,7 +6368,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6379,7 +6383,7 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6388,7 +6392,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6396,7 +6400,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6419,19 +6423,19 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6480,7 +6484,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6495,16 +6499,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6512,7 +6516,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6535,13 +6539,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6592,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6607,7 +6611,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6624,7 +6628,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6650,10 +6654,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>151</v>
@@ -6697,7 +6701,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
@@ -6706,7 +6710,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6721,7 +6725,7 @@
         <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6738,10 +6742,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>79</v>
@@ -6763,13 +6767,13 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6820,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6852,7 +6856,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6878,10 +6882,10 @@
         <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6908,11 +6912,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6930,7 +6934,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6939,13 +6943,13 @@
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6954,7 +6958,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6962,7 +6966,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6985,19 +6989,19 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7046,7 +7050,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7061,7 +7065,7 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7070,7 +7074,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7078,7 +7082,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7104,16 +7108,16 @@
         <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7138,11 +7142,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7160,7 +7164,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7175,7 +7179,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7192,7 +7196,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7215,16 +7219,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7274,7 +7278,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7289,7 +7293,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7298,7 +7302,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7306,7 +7310,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7329,13 +7333,13 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7386,7 +7390,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7401,7 +7405,7 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7418,7 +7422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7444,16 +7448,16 @@
         <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7478,13 +7482,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7502,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7517,16 +7521,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7534,7 +7538,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7557,13 +7561,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7614,7 +7618,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7646,7 +7650,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7724,7 +7728,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7756,10 +7760,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7838,7 +7842,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7870,10 +7874,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7895,13 +7899,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7952,7 +7956,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7984,10 +7988,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
@@ -8009,13 +8013,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8066,7 +8070,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8098,7 +8102,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8121,13 +8125,13 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8178,7 +8182,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8210,7 +8214,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8233,19 +8237,19 @@
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8294,7 +8298,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8309,24 +8313,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8349,13 +8353,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8406,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8438,7 +8442,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8516,7 +8520,7 @@
         <v>135</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8548,10 +8552,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8630,7 +8634,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8662,10 +8666,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>79</v>
@@ -8687,13 +8691,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8744,7 +8748,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8776,10 +8780,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>79</v>
@@ -8801,13 +8805,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8858,7 +8862,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8890,7 +8894,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8913,13 +8917,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8970,7 +8974,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9002,7 +9006,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9025,19 +9029,19 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9086,7 +9090,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9101,16 +9105,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9118,7 +9122,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9141,13 +9145,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9198,7 +9202,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9230,7 +9234,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9308,7 +9312,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9340,10 +9344,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9422,7 +9426,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9454,10 +9458,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -9479,13 +9483,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9536,7 +9540,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9568,10 +9572,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
@@ -9593,13 +9597,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9650,7 +9654,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9682,10 +9686,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>79</v>
@@ -9707,13 +9711,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9764,7 +9768,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9796,7 +9800,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9819,13 +9823,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9876,7 +9880,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9908,7 +9912,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9931,19 +9935,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9992,7 +9996,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10007,16 +10011,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10024,7 +10028,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10047,13 +10051,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10104,7 +10108,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10119,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10136,7 +10140,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10162,10 +10166,10 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>151</v>
@@ -10209,7 +10213,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
@@ -10218,7 +10222,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10233,7 +10237,7 @@
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10250,10 +10254,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>79</v>
@@ -10275,13 +10279,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10332,7 +10336,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10364,7 +10368,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10390,16 +10394,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10412,7 +10416,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10424,13 +10428,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10452,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10463,7 +10467,7 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10472,7 +10476,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10480,7 +10484,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10506,13 +10510,13 @@
         <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10526,7 +10530,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10538,13 +10542,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10562,7 +10566,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10577,7 +10581,7 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10586,7 +10590,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10594,7 +10598,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10617,19 +10621,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10642,7 +10646,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10678,7 +10682,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10693,7 +10697,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10702,7 +10706,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10710,7 +10714,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10733,13 +10737,13 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10754,7 +10758,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10790,7 +10794,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10805,7 +10809,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10814,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10822,11 +10826,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10845,13 +10849,13 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10866,7 +10870,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10902,7 +10906,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10917,7 +10921,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10926,7 +10930,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10934,11 +10938,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10957,16 +10961,16 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10980,7 +10984,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11016,7 +11020,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11031,7 +11035,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11040,7 +11044,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11048,11 +11052,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11071,13 +11075,13 @@
         <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11128,7 +11132,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11143,7 +11147,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11152,7 +11156,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11160,11 +11164,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11183,13 +11187,13 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11204,7 +11208,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11240,7 +11244,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11255,7 +11259,7 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11264,7 +11268,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11272,7 +11276,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11295,16 +11299,16 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11354,7 +11358,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11369,7 +11373,7 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11378,7 +11382,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11386,7 +11390,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11409,17 +11413,17 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11432,7 +11436,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11468,7 +11472,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11483,7 +11487,7 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11492,7 +11496,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11500,7 +11504,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11523,17 +11527,17 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11558,13 +11562,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11582,7 +11586,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11597,16 +11601,16 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11614,7 +11618,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11637,19 +11641,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11698,7 +11702,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11713,16 +11717,16 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11730,7 +11734,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11753,13 +11757,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11810,7 +11814,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11825,7 +11829,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11842,7 +11846,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11868,10 +11872,10 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>151</v>
@@ -11915,7 +11919,7 @@
         <v>134</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
@@ -11924,7 +11928,7 @@
         <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11939,7 +11943,7 @@
         <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -11956,10 +11960,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
@@ -12038,7 +12042,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12070,10 +12074,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12095,13 +12099,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12152,7 +12156,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12184,10 +12188,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>79</v>
@@ -12209,13 +12213,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12266,7 +12270,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12298,7 +12302,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12321,19 +12325,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12382,7 +12386,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12397,16 +12401,16 @@
         <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12414,7 +12418,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12437,19 +12441,19 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12498,7 +12502,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12510,13 +12514,13 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>79</v>
@@ -12530,7 +12534,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12553,13 +12557,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12610,7 +12614,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12625,7 +12629,7 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -12642,7 +12646,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12668,10 +12672,10 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>151</v>
@@ -12724,7 +12728,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12739,7 +12743,7 @@
         <v>137</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -12756,11 +12760,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12782,10 +12786,10 @@
         <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>151</v>
@@ -12840,7 +12844,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12872,7 +12876,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12895,17 +12899,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12930,13 +12934,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12954,7 +12958,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12969,16 +12973,16 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12986,7 +12990,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13009,17 +13013,17 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13068,7 +13072,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13083,16 +13087,16 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13100,7 +13104,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13123,19 +13127,19 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13184,7 +13188,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13199,16 +13203,16 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13216,7 +13220,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13239,17 +13243,17 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13298,7 +13302,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13313,16 +13317,16 @@
         <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13330,7 +13334,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13356,14 +13360,14 @@
         <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13388,13 +13392,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13412,7 +13416,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13427,16 +13431,16 @@
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13444,7 +13448,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13467,17 +13471,17 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13526,7 +13530,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13535,22 +13539,22 @@
         <v>86</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13558,7 +13562,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13581,13 +13585,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13638,7 +13642,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13653,10 +13657,10 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13670,7 +13674,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13693,19 +13697,19 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13754,7 +13758,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13769,10 +13773,10 @@
         <v>98</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
@@ -13786,7 +13790,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13809,13 +13813,13 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13866,7 +13870,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13881,7 +13885,7 @@
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -13898,7 +13902,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13924,10 +13928,10 @@
         <v>131</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>151</v>
@@ -13980,7 +13984,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13995,7 +13999,7 @@
         <v>137</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -14012,11 +14016,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14038,10 +14042,10 @@
         <v>131</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>151</v>
@@ -14096,7 +14100,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14128,7 +14132,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14151,19 +14155,19 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14212,7 +14216,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>86</v>
@@ -14227,16 +14231,16 @@
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14244,7 +14248,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14267,19 +14271,19 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14328,7 +14332,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14343,16 +14347,16 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14360,11 +14364,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14383,16 +14387,16 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14442,7 +14446,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14457,16 +14461,16 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14474,7 +14478,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14497,19 +14501,19 @@
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14558,7 +14562,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14573,10 +14577,10 @@
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
@@ -14590,7 +14594,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14613,19 +14617,19 @@
         <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -14674,7 +14678,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14689,10 +14693,10 @@
         <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -14706,7 +14710,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14729,13 +14733,13 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14786,7 +14790,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14801,7 +14805,7 @@
         <v>79</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
@@ -14818,7 +14822,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14844,10 +14848,10 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>151</v>
@@ -14900,7 +14904,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14915,7 +14919,7 @@
         <v>137</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -14932,11 +14936,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14958,10 +14962,10 @@
         <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>151</v>
@@ -15016,7 +15020,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15048,7 +15052,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15071,16 +15075,16 @@
         <v>87</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15130,7 +15134,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>86</v>
@@ -15148,13 +15152,13 @@
         <v>159</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15162,7 +15166,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15188,10 +15192,10 @@
         <v>106</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15218,13 +15222,13 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>79</v>
@@ -15242,7 +15246,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>86</v>
@@ -15257,10 +15261,10 @@
         <v>98</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="654">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1997,6 +1997,19 @@
   </si>
   <si>
     <t>Patient.link.extension</t>
+  </si>
+  <si>
+    <t>mergeStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-merge-status-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Merge Status Code</t>
+  </si>
+  <si>
+    <t>A code that represents the Merge status of the Patient.</t>
   </si>
   <si>
     <t>Patient.link.modifierExtension</t>
@@ -2351,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14826,7 +14839,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14848,14 +14861,12 @@
         <v>131</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>79</v>
@@ -14892,16 +14903,14 @@
         <v>79</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>173</v>
@@ -14919,7 +14928,7 @@
         <v>137</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -14934,13 +14943,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14950,29 +14961,25 @@
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>131</v>
+        <v>639</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>549</v>
+        <v>640</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
       </c>
@@ -15020,7 +15027,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>551</v>
+        <v>173</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15029,13 +15036,13 @@
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>79</v>
@@ -15052,41 +15059,43 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>640</v>
+        <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15134,31 +15143,31 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>639</v>
+        <v>551</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15166,7 +15175,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15189,15 +15198,17 @@
         <v>87</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>106</v>
+        <v>644</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>79</v>
@@ -15222,13 +15233,13 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>647</v>
+        <v>79</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>79</v>
@@ -15246,7 +15257,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>86</v>
@@ -15261,7 +15272,7 @@
         <v>98</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>649</v>
+        <v>159</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>168</v>
@@ -15270,14 +15281,126 @@
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>79</v>
+        <v>648</v>
       </c>
       <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN113">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15287,7 +15410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$115</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="658">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1340,6 +1340,19 @@
   </si>
   <si>
     <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>validationStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-validation-status-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Address Validation Status Code</t>
+  </si>
+  <si>
+    <t>A code that represents the validation status of the address</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -2364,7 +2377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10379,11 +10392,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10395,29 +10410,25 @@
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>106</v>
+        <v>428</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M71" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10429,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10441,13 +10452,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10465,22 +10476,22 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10489,7 +10500,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10497,7 +10508,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10514,7 +10525,7 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>87</v>
@@ -10523,15 +10534,17 @@
         <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10543,7 +10556,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10558,10 +10571,10 @@
         <v>187</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10579,7 +10592,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10603,7 +10616,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10611,7 +10624,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10634,20 +10647,18 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10659,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10671,13 +10682,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10695,7 +10706,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10710,7 +10721,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10719,7 +10730,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10727,7 +10738,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10738,7 +10749,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10753,13 +10764,17 @@
         <v>164</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10771,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10807,13 +10822,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10822,7 +10837,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10831,7 +10846,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10839,18 +10854,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10865,10 +10880,10 @@
         <v>164</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10883,7 +10898,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10919,13 +10934,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10934,7 +10949,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10943,7 +10958,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10951,11 +10966,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10977,14 +10992,12 @@
         <v>164</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10997,7 +11010,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11033,7 +11046,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11048,7 +11061,7 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11057,7 +11070,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11065,11 +11078,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11091,12 +11104,14 @@
         <v>164</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11109,7 +11124,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11160,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11160,7 +11175,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11169,7 +11184,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11177,11 +11192,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11203,10 +11218,10 @@
         <v>164</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11221,7 +11236,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11257,7 +11272,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11272,7 +11287,7 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11281,7 +11296,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11289,11 +11304,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11315,14 +11330,12 @@
         <v>164</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11335,7 +11348,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11371,7 +11384,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11386,7 +11399,7 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11395,7 +11408,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11403,7 +11416,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11426,18 +11439,18 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11449,7 +11462,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11485,7 +11498,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11500,7 +11513,7 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>305</v>
+        <v>501</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11509,7 +11522,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11517,7 +11530,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11537,20 +11550,20 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11563,7 +11576,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11575,13 +11588,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11599,7 +11612,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11614,16 +11627,16 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>512</v>
+        <v>305</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11631,7 +11644,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11654,19 +11667,17 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>516</v>
+        <v>193</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11691,13 +11702,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11715,7 +11726,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11730,16 +11741,16 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>168</v>
+        <v>517</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11747,7 +11758,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11770,16 +11781,20 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>164</v>
+        <v>520</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>521</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11827,7 +11842,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11839,19 +11854,19 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11859,18 +11874,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -11882,17 +11897,15 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11929,31 +11942,31 @@
         <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>168</v>
@@ -11971,25 +11984,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11998,15 +12009,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12043,16 +12056,16 @@
         <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>173</v>
@@ -12070,7 +12083,7 @@
         <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12087,10 +12100,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>174</v>
+        <v>529</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>79</v>
@@ -12112,13 +12125,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12201,10 +12214,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>79</v>
@@ -12214,7 +12227,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
@@ -12226,13 +12239,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>527</v>
+        <v>176</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>528</v>
+        <v>177</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12313,11 +12326,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12329,7 +12344,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12346,12 +12361,8 @@
       <c r="L88" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12399,7 +12410,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>173</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12411,19 +12422,19 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12431,7 +12442,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12454,19 +12465,19 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12515,7 +12526,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12527,10 +12538,10 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>543</v>
+        <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>168</v>
@@ -12539,7 +12550,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12547,7 +12558,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12558,7 +12569,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12570,16 +12581,20 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>164</v>
+        <v>542</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>165</v>
+        <v>543</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12627,25 +12642,25 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>167</v>
+        <v>541</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
@@ -12659,18 +12674,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12682,17 +12697,15 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12741,19 +12754,19 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>168</v>
@@ -12773,11 +12786,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>548</v>
+        <v>148</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12790,26 +12803,24 @@
         <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>549</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>171</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12857,7 +12868,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>551</v>
+        <v>173</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12872,7 +12883,7 @@
         <v>137</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -12889,11 +12900,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12906,13 +12917,13 @@
         <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>553</v>
@@ -12920,9 +12931,11 @@
       <c r="L93" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M93" s="2"/>
+      <c r="M93" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N93" t="s" s="2">
-        <v>555</v>
+        <v>152</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12947,13 +12960,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12971,7 +12984,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12983,19 +12996,19 @@
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>558</v>
+        <v>129</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13003,7 +13016,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13014,7 +13027,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -13026,17 +13039,17 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13061,13 +13074,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13085,13 +13098,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13100,7 +13113,7 @@
         <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>168</v>
@@ -13109,7 +13122,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13117,7 +13130,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13128,7 +13141,7 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13140,19 +13153,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13201,13 +13212,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13216,7 +13227,7 @@
         <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>168</v>
@@ -13225,7 +13236,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13233,7 +13244,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13244,7 +13255,7 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13256,17 +13267,19 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>417</v>
+        <v>308</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>573</v>
+        <v>312</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13315,13 +13328,13 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -13330,7 +13343,7 @@
         <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>168</v>
@@ -13339,7 +13352,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13347,7 +13360,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13370,10 +13383,10 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>353</v>
+        <v>575</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>576</v>
@@ -13405,13 +13418,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13429,7 +13442,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13444,7 +13457,7 @@
         <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>168</v>
@@ -13484,17 +13497,17 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13519,13 +13532,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13552,13 +13565,13 @@
         <v>86</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>584</v>
+        <v>359</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>168</v>
@@ -13567,7 +13580,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13575,7 +13588,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13598,16 +13611,18 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
       </c>
@@ -13655,7 +13670,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13664,13 +13679,13 @@
         <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>168</v>
@@ -13679,7 +13694,7 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -13698,7 +13713,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13710,7 +13725,7 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>538</v>
+        <v>221</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>591</v>
@@ -13718,12 +13733,8 @@
       <c r="L100" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M100" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
       </c>
@@ -13777,7 +13788,7 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13786,10 +13797,10 @@
         <v>98</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>596</v>
+        <v>168</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
@@ -13803,7 +13814,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13814,7 +13825,7 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>79</v>
@@ -13826,16 +13837,20 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>164</v>
+        <v>542</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>165</v>
+        <v>595</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>79</v>
       </c>
@@ -13883,25 +13898,25 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>167</v>
+        <v>594</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>168</v>
+        <v>599</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -13915,18 +13930,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
@@ -13938,17 +13953,15 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -13997,19 +14010,19 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>168</v>
@@ -14029,11 +14042,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>548</v>
+        <v>148</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14046,26 +14059,24 @@
         <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>549</v>
+        <v>170</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>550</v>
+        <v>171</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N103" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14113,7 +14124,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>551</v>
+        <v>173</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14128,7 +14139,7 @@
         <v>137</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
@@ -14145,42 +14156,42 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>601</v>
+        <v>553</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>602</v>
+        <v>554</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>603</v>
+        <v>151</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>604</v>
+        <v>152</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14205,13 +14216,13 @@
         <v>79</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>79</v>
@@ -14229,31 +14240,31 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>605</v>
+        <v>129</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14261,7 +14272,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14269,7 +14280,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>86</v>
@@ -14284,19 +14295,19 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14321,13 +14332,13 @@
         <v>79</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14345,10 +14356,10 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>86</v>
@@ -14360,16 +14371,16 @@
         <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14377,18 +14388,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>79</v>
@@ -14400,18 +14411,20 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>618</v>
+        <v>236</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14459,13 +14472,13 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -14474,16 +14487,16 @@
         <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>168</v>
+        <v>618</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14491,18 +14504,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -14511,23 +14524,21 @@
         <v>79</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>228</v>
+        <v>622</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L107" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>628</v>
-      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>79</v>
       </c>
@@ -14575,13 +14586,13 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -14590,24 +14601,24 @@
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>629</v>
+        <v>168</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14618,31 +14629,31 @@
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -14691,13 +14702,13 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>79</v>
@@ -14706,10 +14717,10 @@
         <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>168</v>
+        <v>633</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -14721,9 +14732,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14734,28 +14745,32 @@
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>164</v>
+        <v>542</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>165</v>
+        <v>635</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>79</v>
       </c>
@@ -14803,25 +14818,25 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>167</v>
+        <v>634</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>79</v>
@@ -14835,7 +14850,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14846,7 +14861,7 @@
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>79</v>
@@ -14858,13 +14873,13 @@
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14903,32 +14918,34 @@
         <v>79</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB110" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -14943,13 +14960,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>79</v>
       </c>
@@ -14961,7 +14976,7 @@
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
@@ -14970,13 +14985,13 @@
         <v>79</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>639</v>
+        <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>640</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>133</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15015,16 +15030,14 @@
         <v>79</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE111" t="s" s="2">
         <v>173</v>
@@ -15036,7 +15049,7 @@
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>137</v>
@@ -15057,13 +15070,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15073,29 +15088,25 @@
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>131</v>
+        <v>643</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15143,7 +15154,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>551</v>
+        <v>173</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15152,13 +15163,13 @@
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
@@ -15175,41 +15186,43 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>644</v>
+        <v>131</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>79</v>
       </c>
@@ -15257,31 +15270,31 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>643</v>
+        <v>555</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15289,7 +15302,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15312,15 +15325,17 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>106</v>
+        <v>648</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15345,13 +15360,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15369,7 +15384,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>86</v>
@@ -15384,7 +15399,7 @@
         <v>98</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>653</v>
+        <v>159</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>168</v>
@@ -15393,14 +15408,126 @@
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="AN114" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN114">
+  <autoFilter ref="A1:AN115">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15410,7 +15537,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI114">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -927,7 +927,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1113,7 +1113,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-system-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-system-value-set</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1168,7 +1168,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-use-value-set</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -2534,7 +2534,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.8515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient.xlsx
+++ b/StructureDefinition-bc-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="751">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -323,10 +323,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -346,6 +353,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Patient.language</t>
   </si>
   <si>
@@ -423,26 +433,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -469,10 +486,6 @@
     <t>A code classifying the person's aboriginal identity</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.extension:aboriginalidentityindicator</t>
   </si>
   <si>
@@ -568,10 +581,6 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -579,9 +588,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -608,10 +614,16 @@
 </t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
@@ -630,19 +642,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -808,7 +811,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -836,6 +847,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -846,6 +861,12 @@
   </si>
   <si>
     <t>JHN</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -1090,6 +1111,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
@@ -1157,6 +1181,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -1190,8 +1218,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1316,6 +1344,12 @@
   </si>
   <si>
     <t>Patient.gender.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Patient.gender.extension:genderEffectiveDates</t>
@@ -1842,6 +1876,9 @@
     <t>This field contains a patient's most recent marital (civil) status.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
@@ -1935,6 +1972,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -2023,6 +2064,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -2053,6 +2097,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -2080,11 +2127,14 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
   </si>
   <si>
     <t>scoper</t>
@@ -2103,6 +2153,9 @@
   </si>
   <si>
     <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2288,9 +2341,6 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -3128,13 +3178,13 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>80</v>
@@ -3151,10 +3201,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3177,16 +3227,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3236,7 +3286,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -3245,13 +3295,13 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -3268,10 +3318,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3294,16 +3344,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3329,13 +3379,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3353,7 +3403,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -3362,13 +3412,13 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -3385,14 +3435,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3411,16 +3461,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3470,7 +3520,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -3479,13 +3529,13 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -3502,14 +3552,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3528,16 +3578,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3587,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3602,7 +3652,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3619,14 +3669,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3645,15 +3695,17 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3690,17 +3742,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3709,13 +3763,13 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -3732,16 +3786,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3760,15 +3814,17 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3817,7 +3873,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3826,13 +3882,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3849,16 +3905,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3877,16 +3933,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3936,7 +3992,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3945,13 +4001,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3968,16 +4024,16 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3996,16 +4052,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -4055,7 +4111,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -4064,13 +4120,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -4087,16 +4143,16 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -4115,16 +4171,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4174,7 +4230,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4183,13 +4239,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -4206,13 +4262,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
@@ -4234,13 +4290,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4291,7 +4347,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4300,10 +4356,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -4323,13 +4379,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
@@ -4351,13 +4407,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4408,7 +4464,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4417,10 +4473,10 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4440,14 +4496,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4466,19 +4522,19 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4515,19 +4571,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4536,13 +4592,13 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4559,10 +4615,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4582,20 +4638,20 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4632,17 +4688,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4651,22 +4707,22 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4674,10 +4730,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4700,13 +4756,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4757,7 +4813,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4772,7 +4828,7 @@
         <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4789,14 +4845,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4815,16 +4871,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4862,19 +4918,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4883,13 +4939,13 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4906,13 +4962,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4934,13 +4990,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4991,7 +5047,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -5000,10 +5056,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -5023,13 +5079,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -5051,13 +5107,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5108,7 +5164,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -5117,10 +5173,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -5140,10 +5196,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5166,19 +5222,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5203,13 +5259,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -5227,7 +5283,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5236,13 +5292,13 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -5251,7 +5307,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5259,10 +5315,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5285,19 +5341,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5322,13 +5378,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5346,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5355,13 +5411,13 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5370,7 +5426,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5378,10 +5434,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5404,19 +5460,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5429,7 +5485,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5465,7 +5521,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5474,13 +5530,13 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5489,7 +5545,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5497,10 +5553,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5523,16 +5579,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5546,7 +5602,7 @@
         <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>80</v>
@@ -5582,7 +5638,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5591,13 +5647,13 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5606,7 +5662,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5614,10 +5670,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5640,15 +5696,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5755,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5706,13 +5764,13 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5729,10 +5787,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5755,16 +5813,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5814,7 +5872,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5823,13 +5881,13 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5838,7 +5896,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5846,13 +5904,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>80</v>
@@ -5874,17 +5932,17 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5933,7 +5991,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5942,13 +6000,13 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5957,7 +6015,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5965,10 +6023,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5991,13 +6049,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6048,7 +6106,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -6063,7 +6121,7 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -6080,14 +6138,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6106,15 +6164,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6151,19 +6211,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6172,13 +6232,13 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -6195,23 +6255,23 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6223,16 +6283,16 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6282,7 +6342,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6291,13 +6351,13 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6314,10 +6374,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6340,19 +6400,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6377,13 +6437,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6401,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6410,13 +6470,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6425,7 +6485,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6433,10 +6493,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6459,26 +6519,26 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>80</v>
@@ -6496,13 +6556,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6520,7 +6580,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6529,13 +6589,13 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6544,7 +6604,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6552,10 +6612,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6578,19 +6638,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6603,7 +6663,7 @@
         <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>80</v>
@@ -6639,7 +6699,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6648,13 +6708,13 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6663,7 +6723,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6671,10 +6731,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6697,16 +6757,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6720,7 +6780,7 @@
         <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>80</v>
@@ -6756,7 +6816,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6765,13 +6825,13 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6780,7 +6840,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6788,10 +6848,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6814,15 +6874,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6933,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6880,13 +6942,13 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6895,7 +6957,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6903,10 +6965,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6929,16 +6991,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6988,7 +7050,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6997,13 +7059,13 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -7012,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -7020,10 +7082,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7046,70 +7108,70 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7118,19 +7180,19 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -7141,10 +7203,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7167,19 +7229,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -7228,7 +7290,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7237,22 +7299,22 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7260,10 +7322,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7286,13 +7348,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7343,7 +7405,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7358,7 +7420,7 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7375,14 +7437,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7401,16 +7463,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7448,19 +7510,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7469,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7492,13 +7554,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -7520,13 +7582,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7577,7 +7639,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7586,10 +7648,10 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7609,10 +7671,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7635,19 +7697,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7672,11 +7734,11 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7694,7 +7756,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7703,13 +7765,13 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7718,7 +7780,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7726,10 +7788,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7752,19 +7814,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7813,7 +7875,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7822,13 +7884,13 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7837,7 +7899,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7845,14 +7907,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7871,16 +7933,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7930,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7939,13 +8001,13 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7954,7 +8016,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7962,14 +8024,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7988,16 +8050,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8047,7 +8109,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -8056,13 +8118,13 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -8071,7 +8133,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -8079,10 +8141,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8105,15 +8167,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -8162,7 +8226,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8171,13 +8235,13 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -8186,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8194,10 +8258,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8220,15 +8284,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8277,7 +8343,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8286,13 +8352,13 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -8301,7 +8367,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8309,10 +8375,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8335,17 +8401,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8394,7 +8462,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8403,13 +8471,13 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -8418,7 +8486,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8426,10 +8494,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8452,19 +8520,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8513,7 +8581,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8522,22 +8590,22 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8545,10 +8613,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8571,13 +8639,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8628,7 +8696,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8643,7 +8711,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8660,14 +8728,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8686,16 +8754,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8733,19 +8801,19 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8754,13 +8822,13 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8777,13 +8845,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
@@ -8805,13 +8873,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8862,7 +8930,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8871,10 +8939,10 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8894,10 +8962,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8920,15 +8988,17 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8953,11 +9023,11 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8975,7 +9045,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8984,13 +9054,13 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8999,7 +9069,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -9007,10 +9077,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9033,19 +9103,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9094,7 +9164,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9103,13 +9173,13 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -9118,7 +9188,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -9126,10 +9196,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9152,19 +9222,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9189,11 +9259,11 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -9211,7 +9281,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9220,13 +9290,13 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -9235,7 +9305,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9243,10 +9313,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9269,16 +9339,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9328,7 +9398,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9337,13 +9407,13 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9352,7 +9422,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9360,10 +9430,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9386,15 +9456,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9443,7 +9515,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9452,13 +9524,13 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -9467,7 +9539,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9475,10 +9547,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9501,19 +9573,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9538,13 +9610,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9562,7 +9634,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9571,22 +9643,22 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9594,10 +9666,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9620,13 +9692,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9677,7 +9749,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9709,10 +9781,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9735,13 +9807,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9780,17 +9852,17 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9802,7 +9874,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9822,13 +9894,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9850,13 +9922,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9907,7 +9979,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9916,10 +9988,10 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9939,13 +10011,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -9967,13 +10039,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10024,7 +10096,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10033,10 +10105,10 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -10056,13 +10128,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
@@ -10084,13 +10156,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10141,7 +10213,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10150,10 +10222,10 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10173,10 +10245,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10199,13 +10271,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10256,7 +10328,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10288,10 +10360,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10314,19 +10386,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10375,7 +10447,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10384,33 +10456,33 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10433,13 +10505,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10490,7 +10562,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10522,10 +10594,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10548,13 +10620,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10593,17 +10665,17 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10615,7 +10687,7 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10635,13 +10707,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>80</v>
@@ -10663,13 +10735,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10720,7 +10792,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10729,10 +10801,10 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10752,13 +10824,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
@@ -10780,13 +10852,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10837,7 +10909,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10846,10 +10918,10 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10869,13 +10941,13 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>80</v>
@@ -10897,13 +10969,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10954,7 +11026,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10963,10 +11035,10 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10986,10 +11058,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11012,13 +11084,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11069,7 +11141,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11101,10 +11173,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11127,19 +11199,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11188,7 +11260,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11197,22 +11269,22 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11220,10 +11292,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11246,13 +11318,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11303,7 +11375,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11335,10 +11407,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11361,13 +11433,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11406,17 +11478,17 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11428,7 +11500,7 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11448,13 +11520,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>80</v>
@@ -11476,13 +11548,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11533,7 +11605,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11542,10 +11614,10 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11565,13 +11637,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>80</v>
@@ -11593,13 +11665,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11650,7 +11722,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11659,10 +11731,10 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11682,13 +11754,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>80</v>
@@ -11710,13 +11782,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11767,7 +11839,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11776,10 +11848,10 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11799,13 +11871,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>80</v>
@@ -11827,13 +11899,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11884,7 +11956,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11893,10 +11965,10 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11916,10 +11988,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11942,13 +12014,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11999,7 +12071,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12031,10 +12103,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12057,19 +12129,19 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12118,7 +12190,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12127,22 +12199,22 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12150,10 +12222,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12176,13 +12248,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12233,7 +12305,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12248,7 +12320,7 @@
         <v>80</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -12265,14 +12337,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12291,15 +12363,17 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12336,19 +12410,19 @@
         <v>80</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12357,13 +12431,13 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
@@ -12380,16 +12454,16 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12408,15 +12482,17 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12465,7 +12541,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12474,13 +12550,13 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
@@ -12497,16 +12573,16 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12525,16 +12601,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12584,7 +12660,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12593,13 +12669,13 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -12616,13 +12692,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>80</v>
@@ -12644,13 +12720,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12701,7 +12777,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12710,10 +12786,10 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12733,13 +12809,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>80</v>
@@ -12761,13 +12837,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12818,7 +12894,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12827,10 +12903,10 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12850,10 +12926,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12876,19 +12952,19 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12901,7 +12977,7 @@
         <v>80</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>80</v>
@@ -12913,13 +12989,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12937,7 +13013,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12946,13 +13022,13 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12961,7 +13037,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12969,10 +13045,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12995,16 +13071,16 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13018,7 +13094,7 @@
         <v>80</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>80</v>
@@ -13030,13 +13106,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13054,7 +13130,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13063,13 +13139,13 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -13078,7 +13154,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13086,10 +13162,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13112,19 +13188,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13137,7 +13213,7 @@
         <v>80</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>80</v>
@@ -13173,7 +13249,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13182,13 +13258,13 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -13197,7 +13273,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13205,10 +13281,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13231,15 +13307,17 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13252,7 +13330,7 @@
         <v>80</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>80</v>
@@ -13288,7 +13366,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13297,13 +13375,13 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -13312,7 +13390,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13320,14 +13398,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13346,15 +13424,17 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13367,7 +13447,7 @@
         <v>80</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>80</v>
@@ -13403,7 +13483,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13412,13 +13492,13 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -13427,7 +13507,7 @@
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13435,14 +13515,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13461,16 +13541,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13484,7 +13564,7 @@
         <v>80</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>80</v>
@@ -13520,7 +13600,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13529,13 +13609,13 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -13544,7 +13624,7 @@
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13552,14 +13632,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13578,15 +13658,17 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13635,7 +13717,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13644,13 +13726,13 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13659,7 +13741,7 @@
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13667,14 +13749,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13693,15 +13775,17 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13714,7 +13798,7 @@
         <v>80</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>80</v>
@@ -13750,7 +13834,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13759,13 +13843,13 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -13774,7 +13858,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13782,10 +13866,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13808,16 +13892,16 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13867,7 +13951,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13876,13 +13960,13 @@
         <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13891,7 +13975,7 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13899,10 +13983,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13925,17 +14009,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O97" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13948,7 +14034,7 @@
         <v>80</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>80</v>
@@ -13984,7 +14070,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13993,13 +14079,13 @@
         <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -14008,7 +14094,7 @@
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14016,10 +14102,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14042,17 +14128,19 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O98" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14077,13 +14165,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -14101,7 +14189,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14110,22 +14198,22 @@
         <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14133,10 +14221,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14159,19 +14247,19 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14220,7 +14308,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14229,22 +14317,22 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14252,10 +14340,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14278,13 +14366,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14335,7 +14423,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14350,7 +14438,7 @@
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
@@ -14367,14 +14455,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14393,16 +14481,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14440,19 +14528,19 @@
         <v>80</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14464,10 +14552,10 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -14484,13 +14572,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>80</v>
@@ -14512,13 +14600,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14569,7 +14657,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14581,7 +14669,7 @@
         <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
@@ -14601,13 +14689,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>80</v>
@@ -14629,13 +14717,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14686,7 +14774,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14698,7 +14786,7 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -14718,13 +14806,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>80</v>
@@ -14746,13 +14834,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14803,7 +14891,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14815,7 +14903,7 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
@@ -14835,10 +14923,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14861,19 +14949,19 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14922,7 +15010,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14931,22 +15019,22 @@
         <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>100</v>
+        <v>626</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -14954,10 +15042,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14980,19 +15068,19 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15041,7 +15129,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15050,16 +15138,16 @@
         <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -15073,10 +15161,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15099,13 +15187,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15156,7 +15244,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15171,7 +15259,7 @@
         <v>80</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
@@ -15188,14 +15276,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15214,16 +15302,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15261,19 +15349,19 @@
         <v>80</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15282,13 +15370,13 @@
         <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>80</v>
@@ -15305,14 +15393,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15331,19 +15419,19 @@
         <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15392,7 +15480,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15401,13 +15489,13 @@
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>80</v>
@@ -15424,10 +15512,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15450,17 +15538,19 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15485,13 +15575,13 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15509,7 +15599,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15518,22 +15608,22 @@
         <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15541,10 +15631,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15567,17 +15657,19 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>642<